--- a/q1_output.xlsx
+++ b/q1_output.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,16 +763,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1743</v>
+        <v>2792</v>
       </c>
       <c r="C18" t="n">
-        <v>2322</v>
+        <v>181</v>
       </c>
       <c r="D18" t="n">
-        <v>2020</v>
+        <v>4271</v>
       </c>
       <c r="E18" t="n">
-        <v>2543</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19">
@@ -780,16 +780,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1267</v>
+        <v>1743</v>
       </c>
       <c r="C19" t="n">
-        <v>2678</v>
+        <v>2322</v>
       </c>
       <c r="D19" t="n">
-        <v>1482</v>
+        <v>2020</v>
       </c>
       <c r="E19" t="n">
-        <v>2848</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="20">
@@ -797,16 +797,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>626</v>
+        <v>1267</v>
       </c>
       <c r="C20" t="n">
-        <v>2953</v>
+        <v>2678</v>
       </c>
       <c r="D20" t="n">
-        <v>988</v>
+        <v>1482</v>
       </c>
       <c r="E20" t="n">
-        <v>3205</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="21">
@@ -814,16 +814,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1562</v>
+        <v>237</v>
       </c>
       <c r="C21" t="n">
-        <v>2592</v>
+        <v>2960</v>
       </c>
       <c r="D21" t="n">
-        <v>1814</v>
+        <v>636</v>
       </c>
       <c r="E21" t="n">
-        <v>2812</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="22">
@@ -831,16 +831,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2862</v>
+        <v>626</v>
       </c>
       <c r="C22" t="n">
-        <v>1127</v>
+        <v>2953</v>
       </c>
       <c r="D22" t="n">
-        <v>3310</v>
+        <v>988</v>
       </c>
       <c r="E22" t="n">
-        <v>1691</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="23">
@@ -848,16 +848,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1819</v>
+        <v>1562</v>
       </c>
       <c r="C23" t="n">
-        <v>2490</v>
+        <v>2592</v>
       </c>
       <c r="D23" t="n">
-        <v>2064</v>
+        <v>1814</v>
       </c>
       <c r="E23" t="n">
-        <v>2624</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="24">
@@ -865,16 +865,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1105</v>
+        <v>2862</v>
       </c>
       <c r="C24" t="n">
-        <v>2914</v>
+        <v>1127</v>
       </c>
       <c r="D24" t="n">
-        <v>1329</v>
+        <v>3310</v>
       </c>
       <c r="E24" t="n">
-        <v>3044</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="25">
@@ -882,16 +882,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2119</v>
+        <v>1819</v>
       </c>
       <c r="C25" t="n">
-        <v>2339</v>
+        <v>2490</v>
       </c>
       <c r="D25" t="n">
-        <v>2272</v>
+        <v>2064</v>
       </c>
       <c r="E25" t="n">
-        <v>2467</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="26">
@@ -899,16 +899,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>532</v>
+        <v>1105</v>
       </c>
       <c r="C26" t="n">
-        <v>3147</v>
+        <v>2914</v>
       </c>
       <c r="D26" t="n">
-        <v>576</v>
+        <v>1329</v>
       </c>
       <c r="E26" t="n">
-        <v>3205</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="27">
@@ -916,16 +916,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1328</v>
+        <v>2119</v>
       </c>
       <c r="C27" t="n">
-        <v>2908</v>
+        <v>2339</v>
       </c>
       <c r="D27" t="n">
-        <v>1591</v>
+        <v>2272</v>
       </c>
       <c r="E27" t="n">
-        <v>3065</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="28">
@@ -933,16 +933,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2300</v>
+        <v>532</v>
       </c>
       <c r="C28" t="n">
-        <v>2255</v>
+        <v>3147</v>
       </c>
       <c r="D28" t="n">
-        <v>2571</v>
+        <v>576</v>
       </c>
       <c r="E28" t="n">
-        <v>2513</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="29">
@@ -950,16 +950,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>920</v>
+        <v>1328</v>
       </c>
       <c r="C29" t="n">
-        <v>3154</v>
+        <v>2908</v>
       </c>
       <c r="D29" t="n">
-        <v>1263</v>
+        <v>1591</v>
       </c>
       <c r="E29" t="n">
-        <v>3353</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="30">
@@ -967,16 +967,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3227</v>
+        <v>2300</v>
       </c>
       <c r="C30" t="n">
-        <v>635</v>
+        <v>2255</v>
       </c>
       <c r="D30" t="n">
-        <v>3354</v>
+        <v>2571</v>
       </c>
       <c r="E30" t="n">
-        <v>759</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="31">
@@ -984,16 +984,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>310</v>
+        <v>920</v>
       </c>
       <c r="C31" t="n">
-        <v>3313</v>
+        <v>3154</v>
       </c>
       <c r="D31" t="n">
-        <v>532</v>
+        <v>1263</v>
       </c>
       <c r="E31" t="n">
-        <v>3480</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="32">
@@ -1001,16 +1001,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1413</v>
+        <v>3227</v>
       </c>
       <c r="C32" t="n">
-        <v>3019</v>
+        <v>635</v>
       </c>
       <c r="D32" t="n">
-        <v>1876</v>
+        <v>3354</v>
       </c>
       <c r="E32" t="n">
-        <v>3574</v>
+        <v>759</v>
       </c>
     </row>
     <row r="33">
@@ -1018,16 +1018,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1341</v>
+        <v>310</v>
       </c>
       <c r="C33" t="n">
-        <v>3115</v>
+        <v>3313</v>
       </c>
       <c r="D33" t="n">
-        <v>1535</v>
+        <v>532</v>
       </c>
       <c r="E33" t="n">
-        <v>3274</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="34">
@@ -1035,16 +1035,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2216</v>
+        <v>1413</v>
       </c>
       <c r="C34" t="n">
-        <v>2584</v>
+        <v>3019</v>
       </c>
       <c r="D34" t="n">
-        <v>2478</v>
+        <v>1876</v>
       </c>
       <c r="E34" t="n">
-        <v>2822</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="35">
@@ -1052,16 +1052,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>722</v>
+        <v>1341</v>
       </c>
       <c r="C35" t="n">
-        <v>3359</v>
+        <v>3115</v>
       </c>
       <c r="D35" t="n">
-        <v>1042</v>
+        <v>1535</v>
       </c>
       <c r="E35" t="n">
-        <v>3610</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="36">
@@ -1069,16 +1069,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2818</v>
+        <v>2216</v>
       </c>
       <c r="C36" t="n">
-        <v>2088</v>
+        <v>2584</v>
       </c>
       <c r="D36" t="n">
-        <v>3133</v>
+        <v>2478</v>
       </c>
       <c r="E36" t="n">
-        <v>2538</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="37">
@@ -1086,16 +1086,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>351</v>
+        <v>722</v>
       </c>
       <c r="C37" t="n">
-        <v>3521</v>
+        <v>3359</v>
       </c>
       <c r="D37" t="n">
-        <v>527</v>
+        <v>1042</v>
       </c>
       <c r="E37" t="n">
-        <v>3670</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="38">
@@ -1103,16 +1103,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2078</v>
+        <v>2818</v>
       </c>
       <c r="C38" t="n">
-        <v>2906</v>
+        <v>2088</v>
       </c>
       <c r="D38" t="n">
-        <v>2394</v>
+        <v>3133</v>
       </c>
       <c r="E38" t="n">
-        <v>3243</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="39">
@@ -1120,16 +1120,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1148</v>
+        <v>351</v>
       </c>
       <c r="C39" t="n">
-        <v>3424</v>
+        <v>3521</v>
       </c>
       <c r="D39" t="n">
-        <v>1349</v>
+        <v>527</v>
       </c>
       <c r="E39" t="n">
-        <v>3560</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="40">
@@ -1137,16 +1137,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1876</v>
+        <v>2078</v>
       </c>
       <c r="C40" t="n">
-        <v>3099</v>
+        <v>2906</v>
       </c>
       <c r="D40" t="n">
-        <v>1957</v>
+        <v>2394</v>
       </c>
       <c r="E40" t="n">
-        <v>3182</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="41">
@@ -1154,16 +1154,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3517</v>
+        <v>1148</v>
       </c>
       <c r="C41" t="n">
-        <v>983</v>
+        <v>3424</v>
       </c>
       <c r="D41" t="n">
-        <v>3992</v>
+        <v>1349</v>
       </c>
       <c r="E41" t="n">
-        <v>1196</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="42">
@@ -1171,16 +1171,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2483</v>
+        <v>1876</v>
       </c>
       <c r="C42" t="n">
-        <v>2692</v>
+        <v>3099</v>
       </c>
       <c r="D42" t="n">
-        <v>2656</v>
+        <v>1957</v>
       </c>
       <c r="E42" t="n">
-        <v>2805</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="43">
@@ -1188,16 +1188,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2762</v>
+        <v>3517</v>
       </c>
       <c r="C43" t="n">
-        <v>2580</v>
+        <v>983</v>
       </c>
       <c r="D43" t="n">
-        <v>2963</v>
+        <v>3992</v>
       </c>
       <c r="E43" t="n">
-        <v>2760</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="44">
@@ -1205,16 +1205,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2455</v>
+        <v>2483</v>
       </c>
       <c r="C44" t="n">
-        <v>2884</v>
+        <v>2692</v>
       </c>
       <c r="D44" t="n">
-        <v>2764</v>
+        <v>2656</v>
       </c>
       <c r="E44" t="n">
-        <v>3141</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="45">
@@ -1222,16 +1222,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>368</v>
+        <v>2762</v>
       </c>
       <c r="C45" t="n">
-        <v>3775</v>
+        <v>2580</v>
       </c>
       <c r="D45" t="n">
-        <v>573</v>
+        <v>2963</v>
       </c>
       <c r="E45" t="n">
-        <v>3945</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="46">
@@ -1239,16 +1239,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3485</v>
+        <v>2455</v>
       </c>
       <c r="C46" t="n">
-        <v>1505</v>
+        <v>2884</v>
       </c>
       <c r="D46" t="n">
-        <v>3775</v>
+        <v>2764</v>
       </c>
       <c r="E46" t="n">
-        <v>1971</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="47">
@@ -1256,16 +1256,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>791</v>
+        <v>368</v>
       </c>
       <c r="C47" t="n">
-        <v>3721</v>
+        <v>3775</v>
       </c>
       <c r="D47" t="n">
-        <v>1088</v>
+        <v>573</v>
       </c>
       <c r="E47" t="n">
-        <v>3817</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="48">
@@ -1273,16 +1273,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1779</v>
+        <v>3485</v>
       </c>
       <c r="C48" t="n">
-        <v>3466</v>
+        <v>1505</v>
       </c>
       <c r="D48" t="n">
-        <v>2641</v>
+        <v>3775</v>
       </c>
       <c r="E48" t="n">
-        <v>3804</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="49">
@@ -1290,16 +1290,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3688</v>
+        <v>791</v>
       </c>
       <c r="C49" t="n">
-        <v>1295</v>
+        <v>3721</v>
       </c>
       <c r="D49" t="n">
-        <v>3896</v>
+        <v>1088</v>
       </c>
       <c r="E49" t="n">
-        <v>1534</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="50">
@@ -1307,16 +1307,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1121</v>
+        <v>1779</v>
       </c>
       <c r="C50" t="n">
-        <v>3763</v>
+        <v>3466</v>
       </c>
       <c r="D50" t="n">
-        <v>1429</v>
+        <v>2641</v>
       </c>
       <c r="E50" t="n">
-        <v>3918</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="51">
@@ -1324,16 +1324,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2462</v>
+        <v>3688</v>
       </c>
       <c r="C51" t="n">
-        <v>3167</v>
+        <v>1295</v>
       </c>
       <c r="D51" t="n">
-        <v>2748</v>
+        <v>3896</v>
       </c>
       <c r="E51" t="n">
-        <v>3411</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="52">
@@ -1341,16 +1341,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2832</v>
+        <v>1121</v>
       </c>
       <c r="C52" t="n">
-        <v>2842</v>
+        <v>3763</v>
       </c>
       <c r="D52" t="n">
-        <v>3178</v>
+        <v>1429</v>
       </c>
       <c r="E52" t="n">
-        <v>3067</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="53">
@@ -1358,16 +1358,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1456</v>
+        <v>2462</v>
       </c>
       <c r="C53" t="n">
-        <v>3760</v>
+        <v>3167</v>
       </c>
       <c r="D53" t="n">
-        <v>1772</v>
+        <v>2748</v>
       </c>
       <c r="E53" t="n">
-        <v>3961</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="54">
@@ -1375,16 +1375,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>697</v>
+        <v>2832</v>
       </c>
       <c r="C54" t="n">
-        <v>4016</v>
+        <v>2842</v>
       </c>
       <c r="D54" t="n">
-        <v>975</v>
+        <v>3178</v>
       </c>
       <c r="E54" t="n">
-        <v>4204</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="55">
@@ -1392,16 +1392,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3548</v>
+        <v>1456</v>
       </c>
       <c r="C55" t="n">
-        <v>2089</v>
+        <v>3760</v>
       </c>
       <c r="D55" t="n">
-        <v>3963</v>
+        <v>1772</v>
       </c>
       <c r="E55" t="n">
-        <v>2470</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="56">
@@ -1409,16 +1409,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3200</v>
+        <v>697</v>
       </c>
       <c r="C56" t="n">
-        <v>2610</v>
+        <v>4016</v>
       </c>
       <c r="D56" t="n">
-        <v>3395</v>
+        <v>975</v>
       </c>
       <c r="E56" t="n">
-        <v>2821</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="57">
@@ -1426,16 +1426,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2765</v>
+        <v>3548</v>
       </c>
       <c r="C57" t="n">
-        <v>3137</v>
+        <v>2089</v>
       </c>
       <c r="D57" t="n">
-        <v>3026</v>
+        <v>3963</v>
       </c>
       <c r="E57" t="n">
-        <v>3339</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="58">
@@ -1443,16 +1443,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1016</v>
+        <v>3200</v>
       </c>
       <c r="C58" t="n">
-        <v>4099</v>
+        <v>2610</v>
       </c>
       <c r="D58" t="n">
-        <v>1231</v>
+        <v>3395</v>
       </c>
       <c r="E58" t="n">
-        <v>4207</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="59">
@@ -1460,16 +1460,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1294</v>
+        <v>2765</v>
       </c>
       <c r="C59" t="n">
-        <v>4070</v>
+        <v>3137</v>
       </c>
       <c r="D59" t="n">
-        <v>1455</v>
+        <v>3026</v>
       </c>
       <c r="E59" t="n">
-        <v>4200</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="60">
@@ -1477,16 +1477,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3451</v>
+        <v>1016</v>
       </c>
       <c r="C60" t="n">
-        <v>2574</v>
+        <v>4099</v>
       </c>
       <c r="D60" t="n">
-        <v>3686</v>
+        <v>1231</v>
       </c>
       <c r="E60" t="n">
-        <v>2846</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="61">
@@ -1494,16 +1494,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1486</v>
+        <v>1294</v>
       </c>
       <c r="C61" t="n">
-        <v>4051</v>
+        <v>4070</v>
       </c>
       <c r="D61" t="n">
-        <v>1915</v>
+        <v>1455</v>
       </c>
       <c r="E61" t="n">
-        <v>4277</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="62">
@@ -1511,16 +1511,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3233</v>
+        <v>3451</v>
       </c>
       <c r="C62" t="n">
-        <v>2888</v>
+        <v>2574</v>
       </c>
       <c r="D62" t="n">
-        <v>3462</v>
+        <v>3686</v>
       </c>
       <c r="E62" t="n">
-        <v>3171</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="63">
@@ -1528,16 +1528,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2593</v>
+        <v>1486</v>
       </c>
       <c r="C63" t="n">
-        <v>3500</v>
+        <v>4051</v>
       </c>
       <c r="D63" t="n">
-        <v>3079</v>
+        <v>1915</v>
       </c>
       <c r="E63" t="n">
-        <v>3937</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="64">
@@ -1545,16 +1545,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3070</v>
+        <v>3233</v>
       </c>
       <c r="C64" t="n">
-        <v>3136</v>
+        <v>2888</v>
       </c>
       <c r="D64" t="n">
-        <v>3308</v>
+        <v>3462</v>
       </c>
       <c r="E64" t="n">
-        <v>3387</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="65">
@@ -1562,16 +1562,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>330</v>
+        <v>2593</v>
       </c>
       <c r="C65" t="n">
-        <v>4377</v>
+        <v>3500</v>
       </c>
       <c r="D65" t="n">
-        <v>2646</v>
+        <v>3079</v>
       </c>
       <c r="E65" t="n">
-        <v>4997</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="66">
@@ -1579,16 +1579,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1966</v>
+        <v>3070</v>
       </c>
       <c r="C66" t="n">
-        <v>3948</v>
+        <v>3136</v>
       </c>
       <c r="D66" t="n">
-        <v>2327</v>
+        <v>3308</v>
       </c>
       <c r="E66" t="n">
-        <v>4189</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="67">
@@ -1596,16 +1596,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2221</v>
+        <v>330</v>
       </c>
       <c r="C67" t="n">
-        <v>3895</v>
+        <v>4377</v>
       </c>
       <c r="D67" t="n">
-        <v>2492</v>
+        <v>2646</v>
       </c>
       <c r="E67" t="n">
-        <v>4077</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="68">
@@ -1613,16 +1613,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3444</v>
+        <v>1966</v>
       </c>
       <c r="C68" t="n">
-        <v>2894</v>
+        <v>3948</v>
       </c>
       <c r="D68" t="n">
-        <v>3663</v>
+        <v>2327</v>
       </c>
       <c r="E68" t="n">
-        <v>3157</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="69">
@@ -1630,16 +1630,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3751</v>
+        <v>2221</v>
       </c>
       <c r="C69" t="n">
-        <v>2590</v>
+        <v>3895</v>
       </c>
       <c r="D69" t="n">
-        <v>3973</v>
+        <v>2492</v>
       </c>
       <c r="E69" t="n">
-        <v>2783</v>
+        <v>4077</v>
       </c>
     </row>
     <row r="70">
@@ -1647,16 +1647,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2054</v>
+        <v>3444</v>
       </c>
       <c r="C70" t="n">
-        <v>4109</v>
+        <v>2894</v>
       </c>
       <c r="D70" t="n">
-        <v>2452</v>
+        <v>3663</v>
       </c>
       <c r="E70" t="n">
-        <v>4381</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="71">
@@ -1664,16 +1664,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3072</v>
+        <v>3751</v>
       </c>
       <c r="C71" t="n">
-        <v>3437</v>
+        <v>2590</v>
       </c>
       <c r="D71" t="n">
-        <v>3817</v>
+        <v>3973</v>
       </c>
       <c r="E71" t="n">
-        <v>3925</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="72">
@@ -1681,16 +1681,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2505</v>
+        <v>2054</v>
       </c>
       <c r="C72" t="n">
-        <v>3993</v>
+        <v>4109</v>
       </c>
       <c r="D72" t="n">
-        <v>3964</v>
+        <v>2452</v>
       </c>
       <c r="E72" t="n">
-        <v>4659</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="73">
@@ -1698,16 +1698,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3715</v>
+        <v>3072</v>
       </c>
       <c r="C73" t="n">
-        <v>2909</v>
+        <v>3437</v>
       </c>
       <c r="D73" t="n">
-        <v>3966</v>
+        <v>3817</v>
       </c>
       <c r="E73" t="n">
-        <v>3084</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="74">
@@ -1715,16 +1715,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3704</v>
+        <v>2505</v>
       </c>
       <c r="C74" t="n">
-        <v>3131</v>
+        <v>3993</v>
       </c>
       <c r="D74" t="n">
-        <v>4018</v>
+        <v>3964</v>
       </c>
       <c r="E74" t="n">
-        <v>3376</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="75">
@@ -1732,16 +1732,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>372</v>
+        <v>3715</v>
       </c>
       <c r="C75" t="n">
-        <v>5018</v>
+        <v>2909</v>
       </c>
       <c r="D75" t="n">
-        <v>780</v>
+        <v>3966</v>
       </c>
       <c r="E75" t="n">
-        <v>5431</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="76">
@@ -1749,16 +1749,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1059</v>
+        <v>3704</v>
       </c>
       <c r="C76" t="n">
-        <v>4987</v>
+        <v>3131</v>
       </c>
       <c r="D76" t="n">
-        <v>1332</v>
+        <v>4018</v>
       </c>
       <c r="E76" t="n">
-        <v>5163</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="77">
@@ -1766,16 +1766,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1494</v>
+        <v>372</v>
       </c>
       <c r="C77" t="n">
-        <v>4909</v>
+        <v>5018</v>
       </c>
       <c r="D77" t="n">
-        <v>2086</v>
+        <v>780</v>
       </c>
       <c r="E77" t="n">
-        <v>5493</v>
+        <v>5431</v>
       </c>
     </row>
     <row r="78">
@@ -1783,16 +1783,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2726</v>
+        <v>1059</v>
       </c>
       <c r="C78" t="n">
-        <v>4642</v>
+        <v>4987</v>
       </c>
       <c r="D78" t="n">
-        <v>4015</v>
+        <v>1332</v>
       </c>
       <c r="E78" t="n">
-        <v>5554</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="79">
@@ -1800,16 +1800,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2191</v>
+        <v>1494</v>
       </c>
       <c r="C79" t="n">
-        <v>5083</v>
+        <v>4909</v>
       </c>
       <c r="D79" t="n">
-        <v>2328</v>
+        <v>2086</v>
       </c>
       <c r="E79" t="n">
-        <v>5207</v>
+        <v>5493</v>
       </c>
     </row>
     <row r="80">
@@ -1817,15 +1817,49 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>2726</v>
+      </c>
+      <c r="C80" t="n">
+        <v>4642</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4015</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5554</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2191</v>
+      </c>
+      <c r="C81" t="n">
+        <v>5083</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2328</v>
+      </c>
+      <c r="E81" t="n">
+        <v>5207</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
         <v>2366</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C82" t="n">
         <v>5218</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D82" t="n">
         <v>2756</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E82" t="n">
         <v>5461</v>
       </c>
     </row>
@@ -1840,7 +1874,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1875,16 +1909,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C2" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D2" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E2" t="n">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="3">
@@ -1892,16 +1926,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C3" t="n">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D3" t="n">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E3" t="n">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="4">
@@ -1909,16 +1943,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C4" t="n">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="D4" t="n">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E4" t="n">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="5">
@@ -1926,16 +1960,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C5" t="n">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="D5" t="n">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E5" t="n">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="6">
@@ -1943,16 +1977,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="C6" t="n">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D6" t="n">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="E6" t="n">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="7">
@@ -1960,16 +1994,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="C7" t="n">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="D7" t="n">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="E7" t="n">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="8">
@@ -1977,16 +2011,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>953</v>
+        <v>672</v>
       </c>
       <c r="C8" t="n">
-        <v>1842</v>
+        <v>1991</v>
       </c>
       <c r="D8" t="n">
-        <v>1536</v>
+        <v>849</v>
       </c>
       <c r="E8" t="n">
-        <v>2244</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="9">
@@ -1994,16 +2028,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>671</v>
+        <v>954</v>
       </c>
       <c r="C9" t="n">
-        <v>1990</v>
+        <v>1881</v>
       </c>
       <c r="D9" t="n">
-        <v>850</v>
+        <v>1208</v>
       </c>
       <c r="E9" t="n">
-        <v>2238</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="10">
@@ -2011,16 +2045,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C10" t="n">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="D10" t="n">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E10" t="n">
-        <v>1921</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="11">
@@ -2028,16 +2062,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="C11" t="n">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D11" t="n">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="E11" t="n">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="12">
@@ -2045,16 +2079,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1872</v>
+        <v>1208</v>
       </c>
       <c r="C12" t="n">
-        <v>1437</v>
+        <v>1843</v>
       </c>
       <c r="D12" t="n">
-        <v>2154</v>
+        <v>1535</v>
       </c>
       <c r="E12" t="n">
-        <v>1632</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="13">
@@ -2062,16 +2096,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2187</v>
+        <v>1873</v>
       </c>
       <c r="C13" t="n">
-        <v>1402</v>
+        <v>1438</v>
       </c>
       <c r="D13" t="n">
-        <v>2469</v>
+        <v>2153</v>
       </c>
       <c r="E13" t="n">
-        <v>1665</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="14">
@@ -2079,16 +2113,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1582</v>
+        <v>2188</v>
       </c>
       <c r="C14" t="n">
-        <v>2145</v>
+        <v>1403</v>
       </c>
       <c r="D14" t="n">
-        <v>1784</v>
+        <v>2465</v>
       </c>
       <c r="E14" t="n">
-        <v>2383</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="15">
@@ -2096,16 +2130,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2537</v>
+        <v>1583</v>
       </c>
       <c r="C15" t="n">
-        <v>847</v>
+        <v>2146</v>
       </c>
       <c r="D15" t="n">
-        <v>2782</v>
+        <v>1783</v>
       </c>
       <c r="E15" t="n">
-        <v>1108</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="16">
@@ -2113,16 +2147,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1921</v>
+        <v>2538</v>
       </c>
       <c r="C16" t="n">
-        <v>1948</v>
+        <v>848</v>
       </c>
       <c r="D16" t="n">
-        <v>2118</v>
+        <v>2781</v>
       </c>
       <c r="E16" t="n">
-        <v>2237</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="17">
@@ -2130,16 +2164,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>711</v>
+        <v>1922</v>
       </c>
       <c r="C17" t="n">
-        <v>2668</v>
+        <v>1949</v>
       </c>
       <c r="D17" t="n">
-        <v>1016</v>
+        <v>2117</v>
       </c>
       <c r="E17" t="n">
-        <v>2812</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="18">
@@ -2147,16 +2181,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2407</v>
+        <v>713</v>
       </c>
       <c r="C18" t="n">
-        <v>1422</v>
+        <v>2669</v>
       </c>
       <c r="D18" t="n">
-        <v>2576</v>
+        <v>1015</v>
       </c>
       <c r="E18" t="n">
-        <v>1640</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="19">
@@ -2164,16 +2198,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1159</v>
+        <v>2413</v>
       </c>
       <c r="C19" t="n">
-        <v>2575</v>
+        <v>1423</v>
       </c>
       <c r="D19" t="n">
-        <v>1397</v>
+        <v>2574</v>
       </c>
       <c r="E19" t="n">
-        <v>2754</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="20">
@@ -2181,16 +2215,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2178</v>
+        <v>1160</v>
       </c>
       <c r="C20" t="n">
-        <v>2023</v>
+        <v>2576</v>
       </c>
       <c r="D20" t="n">
-        <v>2352</v>
+        <v>1396</v>
       </c>
       <c r="E20" t="n">
-        <v>2216</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="21">
@@ -2198,16 +2232,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1492</v>
+        <v>2179</v>
       </c>
       <c r="C21" t="n">
-        <v>2654</v>
+        <v>2024</v>
       </c>
       <c r="D21" t="n">
-        <v>1700</v>
+        <v>2351</v>
       </c>
       <c r="E21" t="n">
-        <v>2840</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="22">
@@ -2215,16 +2249,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2946</v>
+        <v>1493</v>
       </c>
       <c r="C22" t="n">
-        <v>797</v>
+        <v>2654</v>
       </c>
       <c r="D22" t="n">
-        <v>3162</v>
+        <v>1699</v>
       </c>
       <c r="E22" t="n">
-        <v>1314</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="23">
@@ -2232,16 +2266,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2638</v>
+        <v>2947</v>
       </c>
       <c r="C23" t="n">
-        <v>1582</v>
+        <v>798</v>
       </c>
       <c r="D23" t="n">
-        <v>3003</v>
+        <v>3161</v>
       </c>
       <c r="E23" t="n">
-        <v>1685</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="24">
@@ -2249,16 +2283,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1757</v>
+        <v>2639</v>
       </c>
       <c r="C24" t="n">
-        <v>2612</v>
+        <v>1583</v>
       </c>
       <c r="D24" t="n">
-        <v>1941</v>
+        <v>3002</v>
       </c>
       <c r="E24" t="n">
-        <v>2750</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="25">
@@ -2266,16 +2300,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>765</v>
+        <v>1758</v>
       </c>
       <c r="C25" t="n">
-        <v>3121</v>
+        <v>2613</v>
       </c>
       <c r="D25" t="n">
-        <v>947</v>
+        <v>1940</v>
       </c>
       <c r="E25" t="n">
-        <v>3223</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="26">
@@ -2283,16 +2317,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>335</v>
+        <v>766</v>
       </c>
       <c r="C26" t="n">
-        <v>3208</v>
+        <v>3122</v>
       </c>
       <c r="D26" t="n">
-        <v>526</v>
+        <v>946</v>
       </c>
       <c r="E26" t="n">
-        <v>3393</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="27">
@@ -2300,16 +2334,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="C27" t="n">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="D27" t="n">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="E27" t="n">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="28">
@@ -2317,16 +2351,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1057</v>
+        <v>348</v>
       </c>
       <c r="C28" t="n">
-        <v>3103</v>
+        <v>3265</v>
       </c>
       <c r="D28" t="n">
-        <v>1268</v>
+        <v>524</v>
       </c>
       <c r="E28" t="n">
-        <v>3249</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="29">
@@ -2334,16 +2368,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2051</v>
+        <v>1069</v>
       </c>
       <c r="C29" t="n">
-        <v>2620</v>
+        <v>3113</v>
       </c>
       <c r="D29" t="n">
-        <v>2221</v>
+        <v>1267</v>
       </c>
       <c r="E29" t="n">
-        <v>2787</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="30">
@@ -2351,16 +2385,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1439</v>
+        <v>2052</v>
       </c>
       <c r="C30" t="n">
-        <v>3113</v>
+        <v>2621</v>
       </c>
       <c r="D30" t="n">
-        <v>1878</v>
+        <v>2220</v>
       </c>
       <c r="E30" t="n">
-        <v>3318</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="31">
@@ -2368,16 +2402,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3343</v>
+        <v>1440</v>
       </c>
       <c r="C31" t="n">
-        <v>850</v>
+        <v>3113</v>
       </c>
       <c r="D31" t="n">
-        <v>3760</v>
+        <v>1877</v>
       </c>
       <c r="E31" t="n">
-        <v>1242</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="32">
@@ -2385,16 +2419,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3085</v>
+        <v>3344</v>
       </c>
       <c r="C32" t="n">
-        <v>1556</v>
+        <v>851</v>
       </c>
       <c r="D32" t="n">
-        <v>3390</v>
+        <v>3759</v>
       </c>
       <c r="E32" t="n">
-        <v>1706</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="33">
@@ -2402,16 +2436,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2350</v>
+        <v>3086</v>
       </c>
       <c r="C33" t="n">
-        <v>2583</v>
+        <v>1557</v>
       </c>
       <c r="D33" t="n">
-        <v>2569</v>
+        <v>3389</v>
       </c>
       <c r="E33" t="n">
-        <v>2843</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="34">
@@ -2419,16 +2453,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2895</v>
+        <v>2351</v>
       </c>
       <c r="C34" t="n">
-        <v>2003</v>
+        <v>2584</v>
       </c>
       <c r="D34" t="n">
-        <v>3078</v>
+        <v>2568</v>
       </c>
       <c r="E34" t="n">
-        <v>2254</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="35">
@@ -2436,16 +2470,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>765</v>
+        <v>2896</v>
       </c>
       <c r="C35" t="n">
-        <v>3441</v>
+        <v>2004</v>
       </c>
       <c r="D35" t="n">
-        <v>951</v>
+        <v>3077</v>
       </c>
       <c r="E35" t="n">
-        <v>3641</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="36">
@@ -2453,16 +2487,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>999</v>
+        <v>767</v>
       </c>
       <c r="C36" t="n">
-        <v>3437</v>
+        <v>3442</v>
       </c>
       <c r="D36" t="n">
-        <v>1193</v>
+        <v>950</v>
       </c>
       <c r="E36" t="n">
-        <v>3693</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="37">
@@ -2470,16 +2504,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2011</v>
+        <v>1000</v>
       </c>
       <c r="C37" t="n">
-        <v>3077</v>
+        <v>3438</v>
       </c>
       <c r="D37" t="n">
-        <v>2250</v>
+        <v>1192</v>
       </c>
       <c r="E37" t="n">
-        <v>3280</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="38">
@@ -2487,16 +2521,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1245</v>
+        <v>2012</v>
       </c>
       <c r="C38" t="n">
-        <v>3468</v>
+        <v>3077</v>
       </c>
       <c r="D38" t="n">
-        <v>1486</v>
+        <v>2249</v>
       </c>
       <c r="E38" t="n">
-        <v>3745</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="39">
@@ -2504,16 +2538,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3468</v>
+        <v>1246</v>
       </c>
       <c r="C39" t="n">
-        <v>1282</v>
+        <v>3469</v>
       </c>
       <c r="D39" t="n">
-        <v>3672</v>
+        <v>1485</v>
       </c>
       <c r="E39" t="n">
-        <v>1401</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="40">
@@ -2521,16 +2555,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2655</v>
+        <v>3469</v>
       </c>
       <c r="C40" t="n">
-        <v>2655</v>
+        <v>1282</v>
       </c>
       <c r="D40" t="n">
-        <v>2900</v>
+        <v>3671</v>
       </c>
       <c r="E40" t="n">
-        <v>2798</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="41">
@@ -2538,16 +2572,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3146</v>
+        <v>3741</v>
       </c>
       <c r="C41" t="n">
-        <v>2051</v>
+        <v>166</v>
       </c>
       <c r="D41" t="n">
-        <v>3441</v>
+        <v>3828</v>
       </c>
       <c r="E41" t="n">
-        <v>2293</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42">
@@ -2555,16 +2589,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3474</v>
+        <v>2656</v>
       </c>
       <c r="C42" t="n">
-        <v>1510</v>
+        <v>2656</v>
       </c>
       <c r="D42" t="n">
-        <v>3819</v>
+        <v>2899</v>
       </c>
       <c r="E42" t="n">
-        <v>1763</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="43">
@@ -2572,16 +2606,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2373</v>
+        <v>3147</v>
       </c>
       <c r="C43" t="n">
-        <v>3058</v>
+        <v>2051</v>
       </c>
       <c r="D43" t="n">
-        <v>2579</v>
+        <v>3440</v>
       </c>
       <c r="E43" t="n">
-        <v>3204</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="44">
@@ -2589,16 +2623,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1640</v>
+        <v>3475</v>
       </c>
       <c r="C44" t="n">
-        <v>3535</v>
+        <v>1511</v>
       </c>
       <c r="D44" t="n">
-        <v>1892</v>
+        <v>3818</v>
       </c>
       <c r="E44" t="n">
-        <v>3704</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="45">
@@ -2606,16 +2640,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3005</v>
+        <v>2374</v>
       </c>
       <c r="C45" t="n">
-        <v>2587</v>
+        <v>3059</v>
       </c>
       <c r="D45" t="n">
-        <v>3223</v>
+        <v>2578</v>
       </c>
       <c r="E45" t="n">
-        <v>2751</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="46">
@@ -2623,16 +2657,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2033</v>
+        <v>1641</v>
       </c>
       <c r="C46" t="n">
-        <v>3464</v>
+        <v>3536</v>
       </c>
       <c r="D46" t="n">
-        <v>2235</v>
+        <v>1891</v>
       </c>
       <c r="E46" t="n">
-        <v>3669</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="47">
@@ -2640,16 +2674,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3495</v>
+        <v>3006</v>
       </c>
       <c r="C47" t="n">
-        <v>2064</v>
+        <v>2588</v>
       </c>
       <c r="D47" t="n">
-        <v>3858</v>
+        <v>3222</v>
       </c>
       <c r="E47" t="n">
-        <v>2369</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="48">
@@ -2657,16 +2691,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2743</v>
+        <v>2034</v>
       </c>
       <c r="C48" t="n">
-        <v>3032</v>
+        <v>3465</v>
       </c>
       <c r="D48" t="n">
-        <v>2906</v>
+        <v>2234</v>
       </c>
       <c r="E48" t="n">
-        <v>3236</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="49">
@@ -2674,16 +2708,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>803</v>
+        <v>3496</v>
       </c>
       <c r="C49" t="n">
-        <v>4036</v>
+        <v>2065</v>
       </c>
       <c r="D49" t="n">
-        <v>1025</v>
+        <v>3857</v>
       </c>
       <c r="E49" t="n">
-        <v>4263</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="50">
@@ -2691,16 +2725,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3316</v>
+        <v>2744</v>
       </c>
       <c r="C50" t="n">
-        <v>2586</v>
+        <v>3032</v>
       </c>
       <c r="D50" t="n">
-        <v>3497</v>
+        <v>2905</v>
       </c>
       <c r="E50" t="n">
-        <v>2727</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="51">
@@ -2708,16 +2742,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1149</v>
+        <v>804</v>
       </c>
       <c r="C51" t="n">
-        <v>4050</v>
+        <v>4037</v>
       </c>
       <c r="D51" t="n">
-        <v>1406</v>
+        <v>1024</v>
       </c>
       <c r="E51" t="n">
-        <v>4198</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="52">
@@ -2725,16 +2759,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2381</v>
+        <v>4125</v>
       </c>
       <c r="C52" t="n">
-        <v>3492</v>
+        <v>201</v>
       </c>
       <c r="D52" t="n">
-        <v>2603</v>
+        <v>4204</v>
       </c>
       <c r="E52" t="n">
-        <v>3642</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53">
@@ -2742,16 +2776,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1508</v>
+        <v>3318</v>
       </c>
       <c r="C53" t="n">
-        <v>3991</v>
+        <v>2587</v>
       </c>
       <c r="D53" t="n">
-        <v>1760</v>
+        <v>3496</v>
       </c>
       <c r="E53" t="n">
-        <v>4223</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="54">
@@ -2759,16 +2793,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2983</v>
+        <v>1150</v>
       </c>
       <c r="C54" t="n">
-        <v>3062</v>
+        <v>4051</v>
       </c>
       <c r="D54" t="n">
-        <v>3106</v>
+        <v>1405</v>
       </c>
       <c r="E54" t="n">
-        <v>3220</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="55">
@@ -2776,16 +2810,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3259</v>
+        <v>2382</v>
       </c>
       <c r="C55" t="n">
-        <v>2841</v>
+        <v>3493</v>
       </c>
       <c r="D55" t="n">
-        <v>4111</v>
+        <v>2602</v>
       </c>
       <c r="E55" t="n">
-        <v>3366</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="56">
@@ -2793,16 +2827,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1957</v>
+        <v>1520</v>
       </c>
       <c r="C56" t="n">
-        <v>3950</v>
+        <v>3992</v>
       </c>
       <c r="D56" t="n">
-        <v>2149</v>
+        <v>1759</v>
       </c>
       <c r="E56" t="n">
-        <v>4170</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="57">
@@ -2810,16 +2844,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2761</v>
+        <v>2985</v>
       </c>
       <c r="C57" t="n">
-        <v>3460</v>
+        <v>3063</v>
       </c>
       <c r="D57" t="n">
-        <v>2963</v>
+        <v>3105</v>
       </c>
       <c r="E57" t="n">
-        <v>3680</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="58">
@@ -2827,16 +2861,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3644</v>
+        <v>3260</v>
       </c>
       <c r="C58" t="n">
-        <v>2603</v>
+        <v>2842</v>
       </c>
       <c r="D58" t="n">
-        <v>3783</v>
+        <v>4110</v>
       </c>
       <c r="E58" t="n">
-        <v>2745</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="59">
@@ -2844,16 +2878,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>818</v>
+        <v>1958</v>
       </c>
       <c r="C59" t="n">
-        <v>4469</v>
+        <v>3951</v>
       </c>
       <c r="D59" t="n">
-        <v>1057</v>
+        <v>2148</v>
       </c>
       <c r="E59" t="n">
-        <v>4645</v>
+        <v>4169</v>
       </c>
     </row>
     <row r="60">
@@ -2861,16 +2895,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2241</v>
+        <v>2762</v>
       </c>
       <c r="C60" t="n">
-        <v>3955</v>
+        <v>3461</v>
       </c>
       <c r="D60" t="n">
-        <v>2446</v>
+        <v>2962</v>
       </c>
       <c r="E60" t="n">
-        <v>4175</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="61">
@@ -2878,16 +2912,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1175</v>
+        <v>3645</v>
       </c>
       <c r="C61" t="n">
-        <v>4449</v>
+        <v>2604</v>
       </c>
       <c r="D61" t="n">
-        <v>1469</v>
+        <v>3782</v>
       </c>
       <c r="E61" t="n">
-        <v>4606</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="62">
@@ -2895,16 +2929,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1573</v>
+        <v>819</v>
       </c>
       <c r="C62" t="n">
-        <v>4364</v>
+        <v>4470</v>
       </c>
       <c r="D62" t="n">
-        <v>1946</v>
+        <v>1056</v>
       </c>
       <c r="E62" t="n">
-        <v>4560</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="63">
@@ -2912,16 +2946,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3088</v>
+        <v>2242</v>
       </c>
       <c r="C63" t="n">
-        <v>3533</v>
+        <v>3956</v>
       </c>
       <c r="D63" t="n">
-        <v>3319</v>
+        <v>2445</v>
       </c>
       <c r="E63" t="n">
-        <v>3706</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="64">
@@ -2929,16 +2963,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2592</v>
+        <v>1176</v>
       </c>
       <c r="C64" t="n">
-        <v>3925</v>
+        <v>4450</v>
       </c>
       <c r="D64" t="n">
-        <v>2836</v>
+        <v>1468</v>
       </c>
       <c r="E64" t="n">
-        <v>4128</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="65">
@@ -2946,16 +2980,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2084</v>
+        <v>1574</v>
       </c>
       <c r="C65" t="n">
-        <v>4376</v>
+        <v>4365</v>
       </c>
       <c r="D65" t="n">
-        <v>2346</v>
+        <v>1945</v>
       </c>
       <c r="E65" t="n">
-        <v>4553</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="66">
@@ -2963,16 +2997,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3436</v>
+        <v>3089</v>
       </c>
       <c r="C66" t="n">
-        <v>3479</v>
+        <v>3534</v>
       </c>
       <c r="D66" t="n">
-        <v>3792</v>
+        <v>3318</v>
       </c>
       <c r="E66" t="n">
-        <v>3628</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="67">
@@ -2980,16 +3014,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>722</v>
+        <v>2593</v>
       </c>
       <c r="C67" t="n">
-        <v>4857</v>
+        <v>3926</v>
       </c>
       <c r="D67" t="n">
-        <v>1429</v>
+        <v>2835</v>
       </c>
       <c r="E67" t="n">
-        <v>5306</v>
+        <v>4127</v>
       </c>
     </row>
     <row r="68">
@@ -2997,16 +3031,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3038</v>
+        <v>2085</v>
       </c>
       <c r="C68" t="n">
-        <v>3920</v>
+        <v>4377</v>
       </c>
       <c r="D68" t="n">
-        <v>3268</v>
+        <v>2345</v>
       </c>
       <c r="E68" t="n">
-        <v>4091</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="69">
@@ -3014,16 +3048,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3414</v>
+        <v>3437</v>
       </c>
       <c r="C69" t="n">
-        <v>3780</v>
+        <v>3480</v>
       </c>
       <c r="D69" t="n">
-        <v>3826</v>
+        <v>3791</v>
       </c>
       <c r="E69" t="n">
-        <v>4177</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="70">
@@ -3031,16 +3065,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2586</v>
+        <v>723</v>
       </c>
       <c r="C70" t="n">
-        <v>4404</v>
+        <v>4858</v>
       </c>
       <c r="D70" t="n">
-        <v>2832</v>
+        <v>1428</v>
       </c>
       <c r="E70" t="n">
-        <v>4606</v>
+        <v>5305</v>
       </c>
     </row>
     <row r="71">
@@ -3048,16 +3082,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1449</v>
+        <v>3039</v>
       </c>
       <c r="C71" t="n">
-        <v>4922</v>
+        <v>3921</v>
       </c>
       <c r="D71" t="n">
-        <v>2267</v>
+        <v>3267</v>
       </c>
       <c r="E71" t="n">
-        <v>5338</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="72">
@@ -3065,16 +3099,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3007</v>
+        <v>3415</v>
       </c>
       <c r="C72" t="n">
-        <v>4202</v>
+        <v>3781</v>
       </c>
       <c r="D72" t="n">
-        <v>3337</v>
+        <v>3825</v>
       </c>
       <c r="E72" t="n">
-        <v>4604</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="73">
@@ -3082,16 +3116,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2383</v>
+        <v>2587</v>
       </c>
       <c r="C73" t="n">
-        <v>4835</v>
+        <v>4405</v>
       </c>
       <c r="D73" t="n">
-        <v>2716</v>
+        <v>2831</v>
       </c>
       <c r="E73" t="n">
-        <v>5268</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="74">
@@ -3099,16 +3133,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3592</v>
+        <v>1452</v>
       </c>
       <c r="C74" t="n">
-        <v>4262</v>
+        <v>4923</v>
       </c>
       <c r="D74" t="n">
-        <v>3828</v>
+        <v>2266</v>
       </c>
       <c r="E74" t="n">
-        <v>4446</v>
+        <v>5337</v>
       </c>
     </row>
     <row r="75">
@@ -3116,16 +3150,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3383</v>
+        <v>3008</v>
       </c>
       <c r="C75" t="n">
-        <v>4520</v>
+        <v>4203</v>
       </c>
       <c r="D75" t="n">
-        <v>3516</v>
+        <v>3336</v>
       </c>
       <c r="E75" t="n">
-        <v>4647</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="76">
@@ -3133,16 +3167,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2767</v>
+        <v>2384</v>
       </c>
       <c r="C76" t="n">
-        <v>4922</v>
+        <v>4836</v>
       </c>
       <c r="D76" t="n">
-        <v>3293</v>
+        <v>2715</v>
       </c>
       <c r="E76" t="n">
-        <v>5290</v>
+        <v>5267</v>
       </c>
     </row>
     <row r="77">
@@ -3150,16 +3184,84 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3225</v>
+        <v>713</v>
       </c>
       <c r="C77" t="n">
-        <v>4948</v>
+        <v>5345</v>
       </c>
       <c r="D77" t="n">
-        <v>3810</v>
+        <v>818</v>
       </c>
       <c r="E77" t="n">
-        <v>5299</v>
+        <v>5588</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3593</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4263</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3827</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2768</v>
+      </c>
+      <c r="C79" t="n">
+        <v>4923</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3292</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5289</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3385</v>
+      </c>
+      <c r="C80" t="n">
+        <v>4525</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3515</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4646</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3226</v>
+      </c>
+      <c r="C81" t="n">
+        <v>4949</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3809</v>
+      </c>
+      <c r="E81" t="n">
+        <v>5298</v>
       </c>
     </row>
   </sheetData>
@@ -3173,7 +3275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E159"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3208,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C2" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D2" t="n">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E2" t="n">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3">
@@ -3225,16 +3327,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C3" t="n">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D3" t="n">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E3" t="n">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="4">
@@ -3242,16 +3344,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C4" t="n">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D4" t="n">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="E4" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="5">
@@ -3259,16 +3361,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C5" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D5" t="n">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E5" t="n">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="6">
@@ -3276,16 +3378,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C6" t="n">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D6" t="n">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E6" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="7">
@@ -3293,16 +3395,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C7" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D7" t="n">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E7" t="n">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="8">
@@ -3310,16 +3412,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C8" t="n">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D8" t="n">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E8" t="n">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="9">
@@ -3327,16 +3429,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="C9" t="n">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D9" t="n">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E9" t="n">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="10">
@@ -3344,16 +3446,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C10" t="n">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D10" t="n">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E10" t="n">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="11">
@@ -3361,16 +3463,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="C11" t="n">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D11" t="n">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E11" t="n">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="12">
@@ -3378,16 +3480,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="C12" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D12" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E12" t="n">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="13">
@@ -3395,16 +3497,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C13" t="n">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="D13" t="n">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E13" t="n">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="14">
@@ -3412,16 +3514,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="C14" t="n">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D14" t="n">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="E14" t="n">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="15">
@@ -3429,16 +3531,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="C15" t="n">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D15" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E15" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="16">
@@ -3446,16 +3548,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="C16" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D16" t="n">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="E16" t="n">
-        <v>984</v>
+        <v>908</v>
       </c>
     </row>
     <row r="17">
@@ -3463,16 +3565,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="C17" t="n">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D17" t="n">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="E17" t="n">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="18">
@@ -3480,16 +3582,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2028</v>
+        <v>2099</v>
       </c>
       <c r="C18" t="n">
-        <v>1108</v>
+        <v>862</v>
       </c>
       <c r="D18" t="n">
-        <v>2168</v>
+        <v>2316</v>
       </c>
       <c r="E18" t="n">
-        <v>1220</v>
+        <v>983</v>
       </c>
     </row>
     <row r="19">
@@ -3497,16 +3599,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1805</v>
+        <v>2029</v>
       </c>
       <c r="C19" t="n">
-        <v>1495</v>
+        <v>1109</v>
       </c>
       <c r="D19" t="n">
-        <v>2107</v>
+        <v>2167</v>
       </c>
       <c r="E19" t="n">
-        <v>1910</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="20">
@@ -3514,16 +3616,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2209</v>
+        <v>1806</v>
       </c>
       <c r="C20" t="n">
-        <v>1025</v>
+        <v>1496</v>
       </c>
       <c r="D20" t="n">
-        <v>2458</v>
+        <v>2106</v>
       </c>
       <c r="E20" t="n">
-        <v>1220</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="21">
@@ -3531,16 +3633,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2116</v>
+        <v>2210</v>
       </c>
       <c r="C21" t="n">
-        <v>1259</v>
+        <v>1029</v>
       </c>
       <c r="D21" t="n">
-        <v>2380</v>
+        <v>2457</v>
       </c>
       <c r="E21" t="n">
-        <v>1589</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="22">
@@ -3548,16 +3650,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2446</v>
+        <v>2117</v>
       </c>
       <c r="C22" t="n">
-        <v>588</v>
+        <v>1260</v>
       </c>
       <c r="D22" t="n">
-        <v>2667</v>
+        <v>2379</v>
       </c>
       <c r="E22" t="n">
-        <v>789</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="23">
@@ -3565,16 +3667,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1438</v>
+        <v>535</v>
       </c>
       <c r="C23" t="n">
-        <v>2124</v>
+        <v>2415</v>
       </c>
       <c r="D23" t="n">
-        <v>1735</v>
+        <v>683</v>
       </c>
       <c r="E23" t="n">
-        <v>2647</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="24">
@@ -3582,16 +3684,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2398</v>
+        <v>2447</v>
       </c>
       <c r="C24" t="n">
-        <v>981</v>
+        <v>589</v>
       </c>
       <c r="D24" t="n">
-        <v>2531</v>
+        <v>2666</v>
       </c>
       <c r="E24" t="n">
-        <v>1052</v>
+        <v>788</v>
       </c>
     </row>
     <row r="25">
@@ -3599,16 +3701,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>796</v>
+        <v>1468</v>
       </c>
       <c r="C25" t="n">
-        <v>2483</v>
+        <v>2125</v>
       </c>
       <c r="D25" t="n">
-        <v>1255</v>
+        <v>1734</v>
       </c>
       <c r="E25" t="n">
-        <v>2830</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="26">
@@ -3616,16 +3718,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2462</v>
+        <v>2399</v>
       </c>
       <c r="C26" t="n">
-        <v>882</v>
+        <v>982</v>
       </c>
       <c r="D26" t="n">
-        <v>2536</v>
+        <v>2530</v>
       </c>
       <c r="E26" t="n">
-        <v>930</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="27">
@@ -3633,16 +3735,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1843</v>
+        <v>797</v>
       </c>
       <c r="C27" t="n">
-        <v>1926</v>
+        <v>2484</v>
       </c>
       <c r="D27" t="n">
-        <v>2157</v>
+        <v>1254</v>
       </c>
       <c r="E27" t="n">
-        <v>2125</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="28">
@@ -3650,16 +3752,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1729</v>
+        <v>2464</v>
       </c>
       <c r="C28" t="n">
-        <v>2032</v>
+        <v>883</v>
       </c>
       <c r="D28" t="n">
-        <v>2532</v>
+        <v>2535</v>
       </c>
       <c r="E28" t="n">
-        <v>2641</v>
+        <v>929</v>
       </c>
     </row>
     <row r="29">
@@ -3667,16 +3769,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2168</v>
+        <v>1844</v>
       </c>
       <c r="C29" t="n">
-        <v>1596</v>
+        <v>1930</v>
       </c>
       <c r="D29" t="n">
-        <v>2600</v>
+        <v>2156</v>
       </c>
       <c r="E29" t="n">
-        <v>2006</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="30">
@@ -3684,16 +3786,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2387</v>
+        <v>1730</v>
       </c>
       <c r="C30" t="n">
-        <v>1286</v>
+        <v>2037</v>
       </c>
       <c r="D30" t="n">
-        <v>2559</v>
+        <v>2531</v>
       </c>
       <c r="E30" t="n">
-        <v>1401</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="31">
@@ -3701,16 +3803,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2614</v>
+        <v>2169</v>
       </c>
       <c r="C31" t="n">
-        <v>881</v>
+        <v>1597</v>
       </c>
       <c r="D31" t="n">
-        <v>2850</v>
+        <v>2599</v>
       </c>
       <c r="E31" t="n">
-        <v>1082</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="32">
@@ -3718,16 +3820,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2528</v>
+        <v>2388</v>
       </c>
       <c r="C32" t="n">
-        <v>1127</v>
+        <v>1287</v>
       </c>
       <c r="D32" t="n">
-        <v>2839</v>
+        <v>2558</v>
       </c>
       <c r="E32" t="n">
-        <v>1296</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="33">
@@ -3735,16 +3837,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2764</v>
+        <v>2615</v>
       </c>
       <c r="C33" t="n">
-        <v>615</v>
+        <v>882</v>
       </c>
       <c r="D33" t="n">
-        <v>3022</v>
+        <v>2849</v>
       </c>
       <c r="E33" t="n">
-        <v>816</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="34">
@@ -3752,16 +3854,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2481</v>
+        <v>2529</v>
       </c>
       <c r="C34" t="n">
-        <v>1462</v>
+        <v>1128</v>
       </c>
       <c r="D34" t="n">
-        <v>2573</v>
+        <v>2838</v>
       </c>
       <c r="E34" t="n">
-        <v>1596</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="35">
@@ -3769,16 +3871,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2623</v>
+        <v>2765</v>
       </c>
       <c r="C35" t="n">
-        <v>1335</v>
+        <v>616</v>
       </c>
       <c r="D35" t="n">
-        <v>2820</v>
+        <v>3021</v>
       </c>
       <c r="E35" t="n">
-        <v>1491</v>
+        <v>815</v>
       </c>
     </row>
     <row r="36">
@@ -3786,16 +3888,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1244</v>
+        <v>2482</v>
       </c>
       <c r="C36" t="n">
-        <v>2671</v>
+        <v>1463</v>
       </c>
       <c r="D36" t="n">
-        <v>1698</v>
+        <v>2572</v>
       </c>
       <c r="E36" t="n">
-        <v>3004</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="37">
@@ -3803,16 +3905,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>792</v>
+        <v>2624</v>
       </c>
       <c r="C37" t="n">
-        <v>2847</v>
+        <v>1336</v>
       </c>
       <c r="D37" t="n">
-        <v>1855</v>
+        <v>2819</v>
       </c>
       <c r="E37" t="n">
-        <v>3473</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="38">
@@ -3820,16 +3922,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2910</v>
+        <v>1245</v>
       </c>
       <c r="C38" t="n">
-        <v>878</v>
+        <v>2672</v>
       </c>
       <c r="D38" t="n">
-        <v>3037</v>
+        <v>1697</v>
       </c>
       <c r="E38" t="n">
-        <v>1105</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="39">
@@ -3837,16 +3939,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2700</v>
+        <v>793</v>
       </c>
       <c r="C39" t="n">
-        <v>1517</v>
+        <v>2848</v>
       </c>
       <c r="D39" t="n">
-        <v>2821</v>
+        <v>1854</v>
       </c>
       <c r="E39" t="n">
-        <v>1630</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="40">
@@ -3854,16 +3956,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2919</v>
+        <v>2911</v>
       </c>
       <c r="C40" t="n">
-        <v>1158</v>
+        <v>879</v>
       </c>
       <c r="D40" t="n">
-        <v>3073</v>
+        <v>3036</v>
       </c>
       <c r="E40" t="n">
-        <v>1469</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="41">
@@ -3871,16 +3973,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3088</v>
+        <v>2701</v>
       </c>
       <c r="C41" t="n">
-        <v>591</v>
+        <v>1518</v>
       </c>
       <c r="D41" t="n">
-        <v>3314</v>
+        <v>2820</v>
       </c>
       <c r="E41" t="n">
-        <v>818</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="42">
@@ -3888,16 +3990,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2671</v>
+        <v>2920</v>
       </c>
       <c r="C42" t="n">
-        <v>1688</v>
+        <v>1159</v>
       </c>
       <c r="D42" t="n">
-        <v>3158</v>
+        <v>3072</v>
       </c>
       <c r="E42" t="n">
-        <v>2214</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="43">
@@ -3905,16 +4007,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1787</v>
+        <v>3089</v>
       </c>
       <c r="C43" t="n">
-        <v>2671</v>
+        <v>592</v>
       </c>
       <c r="D43" t="n">
-        <v>2271</v>
+        <v>3313</v>
       </c>
       <c r="E43" t="n">
-        <v>3061</v>
+        <v>817</v>
       </c>
     </row>
     <row r="44">
@@ -3922,16 +4024,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3159</v>
+        <v>2672</v>
       </c>
       <c r="C44" t="n">
-        <v>895</v>
+        <v>1689</v>
       </c>
       <c r="D44" t="n">
-        <v>3478</v>
+        <v>3157</v>
       </c>
       <c r="E44" t="n">
-        <v>1107</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="45">
@@ -3939,16 +4041,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2947</v>
+        <v>1788</v>
       </c>
       <c r="C45" t="n">
-        <v>1503</v>
+        <v>2672</v>
       </c>
       <c r="D45" t="n">
-        <v>3225</v>
+        <v>2270</v>
       </c>
       <c r="E45" t="n">
-        <v>1681</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="46">
@@ -3956,16 +4058,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3144</v>
+        <v>3160</v>
       </c>
       <c r="C46" t="n">
-        <v>1138</v>
+        <v>896</v>
       </c>
       <c r="D46" t="n">
-        <v>3270</v>
+        <v>3477</v>
       </c>
       <c r="E46" t="n">
-        <v>1309</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="47">
@@ -3973,16 +4075,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2549</v>
+        <v>2948</v>
       </c>
       <c r="C47" t="n">
-        <v>2243</v>
+        <v>1504</v>
       </c>
       <c r="D47" t="n">
-        <v>3424</v>
+        <v>3224</v>
       </c>
       <c r="E47" t="n">
-        <v>2753</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="48">
@@ -3990,16 +4092,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3112</v>
+        <v>3145</v>
       </c>
       <c r="C48" t="n">
-        <v>1376</v>
+        <v>1140</v>
       </c>
       <c r="D48" t="n">
-        <v>3297</v>
+        <v>3269</v>
       </c>
       <c r="E48" t="n">
-        <v>1513</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="49">
@@ -4007,16 +4109,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3395</v>
+        <v>2550</v>
       </c>
       <c r="C49" t="n">
-        <v>563</v>
+        <v>2244</v>
       </c>
       <c r="D49" t="n">
-        <v>3776</v>
+        <v>3423</v>
       </c>
       <c r="E49" t="n">
-        <v>891</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="50">
@@ -4024,16 +4126,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2357</v>
+        <v>3113</v>
       </c>
       <c r="C50" t="n">
-        <v>2513</v>
+        <v>1377</v>
       </c>
       <c r="D50" t="n">
-        <v>2793</v>
+        <v>3296</v>
       </c>
       <c r="E50" t="n">
-        <v>2951</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="51">
@@ -4041,16 +4143,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>843</v>
+        <v>3396</v>
       </c>
       <c r="C51" t="n">
-        <v>3370</v>
+        <v>564</v>
       </c>
       <c r="D51" t="n">
-        <v>1130</v>
+        <v>3775</v>
       </c>
       <c r="E51" t="n">
-        <v>3584</v>
+        <v>890</v>
       </c>
     </row>
     <row r="52">
@@ -4058,16 +4160,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3311</v>
+        <v>2358</v>
       </c>
       <c r="C52" t="n">
-        <v>1125</v>
+        <v>2514</v>
       </c>
       <c r="D52" t="n">
-        <v>3592</v>
+        <v>2792</v>
       </c>
       <c r="E52" t="n">
-        <v>1738</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="53">
@@ -4075,16 +4177,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1442</v>
+        <v>844</v>
       </c>
       <c r="C53" t="n">
-        <v>3353</v>
+        <v>3371</v>
       </c>
       <c r="D53" t="n">
-        <v>1715</v>
+        <v>1129</v>
       </c>
       <c r="E53" t="n">
-        <v>3822</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="54">
@@ -4092,16 +4194,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1936</v>
+        <v>3329</v>
       </c>
       <c r="C54" t="n">
-        <v>3098</v>
+        <v>1127</v>
       </c>
       <c r="D54" t="n">
-        <v>2275</v>
+        <v>3591</v>
       </c>
       <c r="E54" t="n">
-        <v>3395</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="55">
@@ -4109,16 +4211,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3541</v>
+        <v>1443</v>
       </c>
       <c r="C55" t="n">
-        <v>953</v>
+        <v>3354</v>
       </c>
       <c r="D55" t="n">
-        <v>3647</v>
+        <v>1714</v>
       </c>
       <c r="E55" t="n">
-        <v>1098</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="56">
@@ -4126,16 +4228,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1170</v>
+        <v>3312</v>
       </c>
       <c r="C56" t="n">
-        <v>3511</v>
+        <v>1547</v>
       </c>
       <c r="D56" t="n">
-        <v>1393</v>
+        <v>3549</v>
       </c>
       <c r="E56" t="n">
-        <v>3753</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="57">
@@ -4143,16 +4245,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3683</v>
+        <v>1937</v>
       </c>
       <c r="C57" t="n">
-        <v>535</v>
+        <v>3104</v>
       </c>
       <c r="D57" t="n">
-        <v>4354</v>
+        <v>2274</v>
       </c>
       <c r="E57" t="n">
-        <v>1310</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="58">
@@ -4160,16 +4262,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>854</v>
+        <v>3542</v>
       </c>
       <c r="C58" t="n">
-        <v>3633</v>
+        <v>954</v>
       </c>
       <c r="D58" t="n">
-        <v>1063</v>
+        <v>3646</v>
       </c>
       <c r="E58" t="n">
-        <v>3956</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="59">
@@ -4177,16 +4279,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1731</v>
+        <v>1171</v>
       </c>
       <c r="C59" t="n">
-        <v>3324</v>
+        <v>3514</v>
       </c>
       <c r="D59" t="n">
-        <v>1886</v>
+        <v>1392</v>
       </c>
       <c r="E59" t="n">
-        <v>3463</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="60">
@@ -4194,16 +4296,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3308</v>
+        <v>3684</v>
       </c>
       <c r="C60" t="n">
-        <v>1787</v>
+        <v>536</v>
       </c>
       <c r="D60" t="n">
-        <v>3415</v>
+        <v>4353</v>
       </c>
       <c r="E60" t="n">
-        <v>1947</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="61">
@@ -4211,16 +4313,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3211</v>
+        <v>855</v>
       </c>
       <c r="C61" t="n">
-        <v>2002</v>
+        <v>3634</v>
       </c>
       <c r="D61" t="n">
-        <v>3394</v>
+        <v>1062</v>
       </c>
       <c r="E61" t="n">
-        <v>2235</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="62">
@@ -4228,16 +4330,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2320</v>
+        <v>1732</v>
       </c>
       <c r="C62" t="n">
-        <v>3008</v>
+        <v>3325</v>
       </c>
       <c r="D62" t="n">
-        <v>2552</v>
+        <v>1885</v>
       </c>
       <c r="E62" t="n">
-        <v>3134</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="63">
@@ -4245,16 +4347,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3616</v>
+        <v>3309</v>
       </c>
       <c r="C63" t="n">
-        <v>1378</v>
+        <v>1788</v>
       </c>
       <c r="D63" t="n">
-        <v>3786</v>
+        <v>3414</v>
       </c>
       <c r="E63" t="n">
-        <v>1783</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="64">
@@ -4262,16 +4364,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2267</v>
+        <v>3212</v>
       </c>
       <c r="C64" t="n">
-        <v>3149</v>
+        <v>2003</v>
       </c>
       <c r="D64" t="n">
-        <v>2546</v>
+        <v>3393</v>
       </c>
       <c r="E64" t="n">
-        <v>3671</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="65">
@@ -4279,16 +4381,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2562</v>
+        <v>2321</v>
       </c>
       <c r="C65" t="n">
-        <v>2935</v>
+        <v>3009</v>
       </c>
       <c r="D65" t="n">
-        <v>2899</v>
+        <v>2551</v>
       </c>
       <c r="E65" t="n">
-        <v>3238</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="66">
@@ -4296,16 +4398,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1780</v>
+        <v>3617</v>
       </c>
       <c r="C66" t="n">
-        <v>3468</v>
+        <v>1379</v>
       </c>
       <c r="D66" t="n">
-        <v>2011</v>
+        <v>3744</v>
       </c>
       <c r="E66" t="n">
-        <v>3687</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="67">
@@ -4313,16 +4415,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3462</v>
+        <v>2268</v>
       </c>
       <c r="C67" t="n">
-        <v>1794</v>
+        <v>3152</v>
       </c>
       <c r="D67" t="n">
-        <v>3595</v>
+        <v>2545</v>
       </c>
       <c r="E67" t="n">
-        <v>1963</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="68">
@@ -4330,16 +4432,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2867</v>
+        <v>2563</v>
       </c>
       <c r="C68" t="n">
-        <v>2669</v>
+        <v>2936</v>
       </c>
       <c r="D68" t="n">
-        <v>3057</v>
+        <v>2898</v>
       </c>
       <c r="E68" t="n">
-        <v>2894</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="69">
@@ -4347,16 +4449,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1122</v>
+        <v>1781</v>
       </c>
       <c r="C69" t="n">
-        <v>3794</v>
+        <v>3469</v>
       </c>
       <c r="D69" t="n">
-        <v>1291</v>
+        <v>2010</v>
       </c>
       <c r="E69" t="n">
-        <v>4012</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="70">
@@ -4364,16 +4466,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2805</v>
+        <v>3463</v>
       </c>
       <c r="C70" t="n">
-        <v>2863</v>
+        <v>1796</v>
       </c>
       <c r="D70" t="n">
-        <v>2852</v>
+        <v>3594</v>
       </c>
       <c r="E70" t="n">
-        <v>2923</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="71">
@@ -4381,16 +4483,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2040</v>
+        <v>2868</v>
       </c>
       <c r="C71" t="n">
-        <v>3452</v>
+        <v>2670</v>
       </c>
       <c r="D71" t="n">
-        <v>2202</v>
+        <v>3053</v>
       </c>
       <c r="E71" t="n">
-        <v>3758</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="72">
@@ -4398,16 +4500,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3465</v>
+        <v>1123</v>
       </c>
       <c r="C72" t="n">
-        <v>2032</v>
+        <v>3795</v>
       </c>
       <c r="D72" t="n">
-        <v>3622</v>
+        <v>1290</v>
       </c>
       <c r="E72" t="n">
-        <v>2154</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="73">
@@ -4415,16 +4517,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3821</v>
+        <v>3632</v>
       </c>
       <c r="C73" t="n">
-        <v>1321</v>
+        <v>1658</v>
       </c>
       <c r="D73" t="n">
-        <v>3944</v>
+        <v>3785</v>
       </c>
       <c r="E73" t="n">
-        <v>1570</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="74">
@@ -4432,16 +4534,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3406</v>
+        <v>2041</v>
       </c>
       <c r="C74" t="n">
-        <v>2246</v>
+        <v>3453</v>
       </c>
       <c r="D74" t="n">
-        <v>3541</v>
+        <v>2201</v>
       </c>
       <c r="E74" t="n">
-        <v>2474</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="75">
@@ -4449,16 +4551,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3664</v>
+        <v>3466</v>
       </c>
       <c r="C75" t="n">
-        <v>1812</v>
+        <v>2033</v>
       </c>
       <c r="D75" t="n">
-        <v>3802</v>
+        <v>3621</v>
       </c>
       <c r="E75" t="n">
-        <v>2002</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="76">
@@ -4466,16 +4568,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1406</v>
+        <v>3822</v>
       </c>
       <c r="C76" t="n">
-        <v>3861</v>
+        <v>1323</v>
       </c>
       <c r="D76" t="n">
-        <v>1671</v>
+        <v>3943</v>
       </c>
       <c r="E76" t="n">
-        <v>4044</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="77">
@@ -4483,16 +4585,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1754</v>
+        <v>3407</v>
       </c>
       <c r="C77" t="n">
-        <v>3740</v>
+        <v>2247</v>
       </c>
       <c r="D77" t="n">
-        <v>1967</v>
+        <v>3540</v>
       </c>
       <c r="E77" t="n">
-        <v>3982</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="78">
@@ -4500,16 +4602,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3204</v>
+        <v>3665</v>
       </c>
       <c r="C78" t="n">
-        <v>2620</v>
+        <v>1813</v>
       </c>
       <c r="D78" t="n">
-        <v>3658</v>
+        <v>3801</v>
       </c>
       <c r="E78" t="n">
-        <v>2918</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="79">
@@ -4517,16 +4619,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3064</v>
+        <v>1407</v>
       </c>
       <c r="C79" t="n">
-        <v>2803</v>
+        <v>3862</v>
       </c>
       <c r="D79" t="n">
-        <v>3122</v>
+        <v>1670</v>
       </c>
       <c r="E79" t="n">
-        <v>2852</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="80">
@@ -4534,16 +4636,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3026</v>
+        <v>1755</v>
       </c>
       <c r="C80" t="n">
-        <v>2858</v>
+        <v>3741</v>
       </c>
       <c r="D80" t="n">
-        <v>3146</v>
+        <v>1966</v>
       </c>
       <c r="E80" t="n">
-        <v>2965</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="81">
@@ -4551,16 +4653,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2634</v>
+        <v>3205</v>
       </c>
       <c r="C81" t="n">
-        <v>3270</v>
+        <v>2621</v>
       </c>
       <c r="D81" t="n">
-        <v>2831</v>
+        <v>3657</v>
       </c>
       <c r="E81" t="n">
-        <v>3638</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="82">
@@ -4568,16 +4670,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3872</v>
+        <v>3068</v>
       </c>
       <c r="C82" t="n">
-        <v>1668</v>
+        <v>2804</v>
       </c>
       <c r="D82" t="n">
-        <v>4068</v>
+        <v>3121</v>
       </c>
       <c r="E82" t="n">
-        <v>1754</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="83">
@@ -4585,16 +4687,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3606</v>
+        <v>3028</v>
       </c>
       <c r="C83" t="n">
-        <v>2203</v>
+        <v>2859</v>
       </c>
       <c r="D83" t="n">
-        <v>3790</v>
+        <v>3145</v>
       </c>
       <c r="E83" t="n">
-        <v>2376</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="84">
@@ -4602,16 +4704,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2987</v>
+        <v>2635</v>
       </c>
       <c r="C84" t="n">
-        <v>2991</v>
+        <v>3271</v>
       </c>
       <c r="D84" t="n">
-        <v>3087</v>
+        <v>2830</v>
       </c>
       <c r="E84" t="n">
-        <v>3077</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="85">
@@ -4619,16 +4721,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3692</v>
+        <v>3873</v>
       </c>
       <c r="C85" t="n">
-        <v>2062</v>
+        <v>1669</v>
       </c>
       <c r="D85" t="n">
-        <v>3986</v>
+        <v>4067</v>
       </c>
       <c r="E85" t="n">
-        <v>2266</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="86">
@@ -4636,16 +4738,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3915</v>
+        <v>3607</v>
       </c>
       <c r="C86" t="n">
-        <v>1609</v>
+        <v>2204</v>
       </c>
       <c r="D86" t="n">
-        <v>4045</v>
+        <v>3789</v>
       </c>
       <c r="E86" t="n">
-        <v>1656</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="87">
@@ -4653,16 +4755,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2933</v>
+        <v>2988</v>
       </c>
       <c r="C87" t="n">
-        <v>3104</v>
+        <v>2992</v>
       </c>
       <c r="D87" t="n">
-        <v>3048</v>
+        <v>3086</v>
       </c>
       <c r="E87" t="n">
-        <v>3363</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="88">
@@ -4670,16 +4772,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3110</v>
+        <v>3693</v>
       </c>
       <c r="C88" t="n">
-        <v>2950</v>
+        <v>2063</v>
       </c>
       <c r="D88" t="n">
-        <v>3245</v>
+        <v>3985</v>
       </c>
       <c r="E88" t="n">
-        <v>3255</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="89">
@@ -4687,16 +4789,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3872</v>
+        <v>3916</v>
       </c>
       <c r="C89" t="n">
-        <v>1862</v>
+        <v>1610</v>
       </c>
       <c r="D89" t="n">
-        <v>4067</v>
+        <v>4044</v>
       </c>
       <c r="E89" t="n">
-        <v>2021</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="90">
@@ -4704,16 +4806,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4090</v>
+        <v>2934</v>
       </c>
       <c r="C90" t="n">
-        <v>1318</v>
+        <v>3105</v>
       </c>
       <c r="D90" t="n">
-        <v>4217</v>
+        <v>3047</v>
       </c>
       <c r="E90" t="n">
-        <v>1682</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="91">
@@ -4721,16 +4823,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3554</v>
+        <v>3111</v>
       </c>
       <c r="C91" t="n">
-        <v>2439</v>
+        <v>2951</v>
       </c>
       <c r="D91" t="n">
-        <v>3665</v>
+        <v>3244</v>
       </c>
       <c r="E91" t="n">
-        <v>2600</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="92">
@@ -4738,16 +4840,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4298</v>
+        <v>3873</v>
       </c>
       <c r="C92" t="n">
-        <v>480</v>
+        <v>1863</v>
       </c>
       <c r="D92" t="n">
-        <v>5478</v>
+        <v>4066</v>
       </c>
       <c r="E92" t="n">
-        <v>1646</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="93">
@@ -4755,16 +4857,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2022</v>
+        <v>4091</v>
       </c>
       <c r="C93" t="n">
-        <v>3832</v>
+        <v>1318</v>
       </c>
       <c r="D93" t="n">
-        <v>2160</v>
+        <v>4216</v>
       </c>
       <c r="E93" t="n">
-        <v>3995</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="94">
@@ -4772,16 +4874,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2270</v>
+        <v>3555</v>
       </c>
       <c r="C94" t="n">
-        <v>3702</v>
+        <v>2441</v>
       </c>
       <c r="D94" t="n">
-        <v>2392</v>
+        <v>3664</v>
       </c>
       <c r="E94" t="n">
-        <v>3857</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="95">
@@ -4789,16 +4891,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2501</v>
+        <v>4299</v>
       </c>
       <c r="C95" t="n">
-        <v>3631</v>
+        <v>481</v>
       </c>
       <c r="D95" t="n">
-        <v>2658</v>
+        <v>5477</v>
       </c>
       <c r="E95" t="n">
-        <v>3960</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="96">
@@ -4806,16 +4908,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2932</v>
+        <v>2023</v>
       </c>
       <c r="C96" t="n">
-        <v>3324</v>
+        <v>3833</v>
       </c>
       <c r="D96" t="n">
-        <v>3372</v>
+        <v>2159</v>
       </c>
       <c r="E96" t="n">
-        <v>3506</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="97">
@@ -4823,16 +4925,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3347</v>
+        <v>2271</v>
       </c>
       <c r="C97" t="n">
-        <v>2909</v>
+        <v>3703</v>
       </c>
       <c r="D97" t="n">
-        <v>3512</v>
+        <v>2391</v>
       </c>
       <c r="E97" t="n">
-        <v>3045</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="98">
@@ -4840,16 +4942,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2229</v>
+        <v>2502</v>
       </c>
       <c r="C98" t="n">
-        <v>3870</v>
+        <v>3632</v>
       </c>
       <c r="D98" t="n">
-        <v>2413</v>
+        <v>2657</v>
       </c>
       <c r="E98" t="n">
-        <v>4033</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="99">
@@ -4857,16 +4959,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3749</v>
+        <v>2933</v>
       </c>
       <c r="C99" t="n">
-        <v>2479</v>
+        <v>3325</v>
       </c>
       <c r="D99" t="n">
-        <v>4122</v>
+        <v>3371</v>
       </c>
       <c r="E99" t="n">
-        <v>2957</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="100">
@@ -4874,16 +4976,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4166</v>
+        <v>3348</v>
       </c>
       <c r="C100" t="n">
-        <v>1705</v>
+        <v>2910</v>
       </c>
       <c r="D100" t="n">
-        <v>4398</v>
+        <v>3511</v>
       </c>
       <c r="E100" t="n">
-        <v>1932</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="101">
@@ -4891,16 +4993,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3702</v>
+        <v>2230</v>
       </c>
       <c r="C101" t="n">
-        <v>2566</v>
+        <v>3871</v>
       </c>
       <c r="D101" t="n">
-        <v>3815</v>
+        <v>2412</v>
       </c>
       <c r="E101" t="n">
-        <v>2726</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="102">
@@ -4908,16 +5010,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3876</v>
+        <v>3750</v>
       </c>
       <c r="C102" t="n">
-        <v>2337</v>
+        <v>2481</v>
       </c>
       <c r="D102" t="n">
-        <v>3996</v>
+        <v>4121</v>
       </c>
       <c r="E102" t="n">
-        <v>2458</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="103">
@@ -4925,16 +5027,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2889</v>
+        <v>4167</v>
       </c>
       <c r="C103" t="n">
-        <v>3485</v>
+        <v>1706</v>
       </c>
       <c r="D103" t="n">
-        <v>3062</v>
+        <v>4397</v>
       </c>
       <c r="E103" t="n">
-        <v>3858</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="104">
@@ -4942,16 +5044,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3332</v>
+        <v>3703</v>
       </c>
       <c r="C104" t="n">
-        <v>3074</v>
+        <v>2567</v>
       </c>
       <c r="D104" t="n">
-        <v>3409</v>
+        <v>3814</v>
       </c>
       <c r="E104" t="n">
-        <v>3134</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="105">
@@ -4959,16 +5061,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2718</v>
+        <v>3877</v>
       </c>
       <c r="C105" t="n">
-        <v>3642</v>
+        <v>2338</v>
       </c>
       <c r="D105" t="n">
-        <v>2826</v>
+        <v>3995</v>
       </c>
       <c r="E105" t="n">
-        <v>3898</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="106">
@@ -4976,16 +5078,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3566</v>
+        <v>2890</v>
       </c>
       <c r="C106" t="n">
-        <v>2822</v>
+        <v>3488</v>
       </c>
       <c r="D106" t="n">
-        <v>3686</v>
+        <v>3061</v>
       </c>
       <c r="E106" t="n">
-        <v>2914</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="107">
@@ -4993,16 +5095,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4080</v>
+        <v>3333</v>
       </c>
       <c r="C107" t="n">
-        <v>2051</v>
+        <v>3075</v>
       </c>
       <c r="D107" t="n">
-        <v>4207</v>
+        <v>3408</v>
       </c>
       <c r="E107" t="n">
-        <v>2207</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="108">
@@ -5010,16 +5112,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3510</v>
+        <v>2719</v>
       </c>
       <c r="C108" t="n">
-        <v>2937</v>
+        <v>3643</v>
       </c>
       <c r="D108" t="n">
-        <v>3697</v>
+        <v>2825</v>
       </c>
       <c r="E108" t="n">
-        <v>3270</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="109">
@@ -5027,16 +5129,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3330</v>
+        <v>3567</v>
       </c>
       <c r="C109" t="n">
-        <v>3174</v>
+        <v>2823</v>
       </c>
       <c r="D109" t="n">
-        <v>3419</v>
+        <v>3685</v>
       </c>
       <c r="E109" t="n">
-        <v>3223</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="110">
@@ -5044,16 +5146,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4067</v>
+        <v>4081</v>
       </c>
       <c r="C110" t="n">
-        <v>2250</v>
+        <v>2053</v>
       </c>
       <c r="D110" t="n">
-        <v>4233</v>
+        <v>4206</v>
       </c>
       <c r="E110" t="n">
-        <v>2472</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="111">
@@ -5061,16 +5163,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>3038</v>
+        <v>3511</v>
       </c>
       <c r="C111" t="n">
-        <v>3550</v>
+        <v>2938</v>
       </c>
       <c r="D111" t="n">
-        <v>3335</v>
+        <v>3696</v>
       </c>
       <c r="E111" t="n">
-        <v>4019</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="112">
@@ -5078,16 +5180,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3412</v>
+        <v>3331</v>
       </c>
       <c r="C112" t="n">
-        <v>3268</v>
+        <v>3175</v>
       </c>
       <c r="D112" t="n">
-        <v>3511</v>
+        <v>3418</v>
       </c>
       <c r="E112" t="n">
-        <v>3485</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="113">
@@ -5095,16 +5197,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2679</v>
+        <v>4068</v>
       </c>
       <c r="C113" t="n">
-        <v>3914</v>
+        <v>2251</v>
       </c>
       <c r="D113" t="n">
-        <v>2819</v>
+        <v>4232</v>
       </c>
       <c r="E113" t="n">
-        <v>4031</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="114">
@@ -5112,16 +5214,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4301</v>
+        <v>3039</v>
       </c>
       <c r="C114" t="n">
-        <v>2005</v>
+        <v>3551</v>
       </c>
       <c r="D114" t="n">
-        <v>4350</v>
+        <v>3334</v>
       </c>
       <c r="E114" t="n">
-        <v>2096</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="115">
@@ -5129,16 +5231,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3691</v>
+        <v>3413</v>
       </c>
       <c r="C115" t="n">
-        <v>3036</v>
+        <v>3269</v>
       </c>
       <c r="D115" t="n">
-        <v>3938</v>
+        <v>3510</v>
       </c>
       <c r="E115" t="n">
-        <v>3403</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="116">
@@ -5146,16 +5248,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4471</v>
+        <v>4302</v>
       </c>
       <c r="C116" t="n">
-        <v>1716</v>
+        <v>2006</v>
       </c>
       <c r="D116" t="n">
-        <v>4621</v>
+        <v>4349</v>
       </c>
       <c r="E116" t="n">
-        <v>1887</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="117">
@@ -5163,16 +5265,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4384</v>
+        <v>2680</v>
       </c>
       <c r="C117" t="n">
-        <v>2014</v>
+        <v>3923</v>
       </c>
       <c r="D117" t="n">
-        <v>4500</v>
+        <v>2818</v>
       </c>
       <c r="E117" t="n">
-        <v>2163</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="118">
@@ -5180,16 +5282,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4318</v>
+        <v>3523</v>
       </c>
       <c r="C118" t="n">
-        <v>2182</v>
+        <v>3210</v>
       </c>
       <c r="D118" t="n">
-        <v>4445</v>
+        <v>3594</v>
       </c>
       <c r="E118" t="n">
-        <v>2534</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="119">
@@ -5197,16 +5299,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4172</v>
+        <v>3692</v>
       </c>
       <c r="C119" t="n">
-        <v>2476</v>
+        <v>3037</v>
       </c>
       <c r="D119" t="n">
-        <v>4513</v>
+        <v>3937</v>
       </c>
       <c r="E119" t="n">
-        <v>2744</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="120">
@@ -5214,16 +5316,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3561</v>
+        <v>4472</v>
       </c>
       <c r="C120" t="n">
-        <v>3307</v>
+        <v>1717</v>
       </c>
       <c r="D120" t="n">
-        <v>3683</v>
+        <v>4620</v>
       </c>
       <c r="E120" t="n">
-        <v>3457</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="121">
@@ -5231,16 +5333,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3405</v>
+        <v>4385</v>
       </c>
       <c r="C121" t="n">
-        <v>3494</v>
+        <v>2015</v>
       </c>
       <c r="D121" t="n">
-        <v>3541</v>
+        <v>4499</v>
       </c>
       <c r="E121" t="n">
-        <v>3631</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="122">
@@ -5248,16 +5350,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2879</v>
+        <v>4319</v>
       </c>
       <c r="C122" t="n">
-        <v>4026</v>
+        <v>2183</v>
       </c>
       <c r="D122" t="n">
-        <v>2997</v>
+        <v>4444</v>
       </c>
       <c r="E122" t="n">
-        <v>4156</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="123">
@@ -5265,16 +5367,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3354</v>
+        <v>4173</v>
       </c>
       <c r="C123" t="n">
-        <v>3685</v>
+        <v>2477</v>
       </c>
       <c r="D123" t="n">
-        <v>3502</v>
+        <v>4512</v>
       </c>
       <c r="E123" t="n">
-        <v>3856</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="124">
@@ -5282,16 +5384,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4489</v>
+        <v>3562</v>
       </c>
       <c r="C124" t="n">
-        <v>2177</v>
+        <v>3308</v>
       </c>
       <c r="D124" t="n">
-        <v>4641</v>
+        <v>3682</v>
       </c>
       <c r="E124" t="n">
-        <v>2327</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="125">
@@ -5299,16 +5401,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4594</v>
+        <v>3406</v>
       </c>
       <c r="C125" t="n">
-        <v>1950</v>
+        <v>3497</v>
       </c>
       <c r="D125" t="n">
-        <v>4805</v>
+        <v>3540</v>
       </c>
       <c r="E125" t="n">
-        <v>2126</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="126">
@@ -5316,16 +5418,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3954</v>
+        <v>2880</v>
       </c>
       <c r="C126" t="n">
-        <v>3084</v>
+        <v>4027</v>
       </c>
       <c r="D126" t="n">
-        <v>4063</v>
+        <v>2995</v>
       </c>
       <c r="E126" t="n">
-        <v>3224</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="127">
@@ -5333,16 +5435,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4080</v>
+        <v>3355</v>
       </c>
       <c r="C127" t="n">
-        <v>2918</v>
+        <v>3686</v>
       </c>
       <c r="D127" t="n">
-        <v>4191</v>
+        <v>3501</v>
       </c>
       <c r="E127" t="n">
-        <v>3056</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="128">
@@ -5350,16 +5452,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4739</v>
+        <v>4490</v>
       </c>
       <c r="C128" t="n">
-        <v>1683</v>
+        <v>2178</v>
       </c>
       <c r="D128" t="n">
-        <v>4887</v>
+        <v>4640</v>
       </c>
       <c r="E128" t="n">
-        <v>1786</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="129">
@@ -5367,16 +5469,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4727</v>
+        <v>4595</v>
       </c>
       <c r="C129" t="n">
-        <v>1766</v>
+        <v>1951</v>
       </c>
       <c r="D129" t="n">
-        <v>4891</v>
+        <v>4804</v>
       </c>
       <c r="E129" t="n">
-        <v>1896</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="130">
@@ -5384,16 +5486,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3571</v>
+        <v>4081</v>
       </c>
       <c r="C130" t="n">
-        <v>3598</v>
+        <v>2919</v>
       </c>
       <c r="D130" t="n">
-        <v>3878</v>
+        <v>4190</v>
       </c>
       <c r="E130" t="n">
-        <v>3996</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="131">
@@ -5401,16 +5503,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4239</v>
+        <v>3958</v>
       </c>
       <c r="C131" t="n">
-        <v>2785</v>
+        <v>3085</v>
       </c>
       <c r="D131" t="n">
-        <v>4426</v>
+        <v>4062</v>
       </c>
       <c r="E131" t="n">
-        <v>2969</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="132">
@@ -5418,16 +5520,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3710</v>
+        <v>4740</v>
       </c>
       <c r="C132" t="n">
-        <v>3475</v>
+        <v>1684</v>
       </c>
       <c r="D132" t="n">
-        <v>3867</v>
+        <v>4886</v>
       </c>
       <c r="E132" t="n">
-        <v>3560</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="133">
@@ -5435,16 +5537,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3329</v>
+        <v>4728</v>
       </c>
       <c r="C133" t="n">
-        <v>3889</v>
+        <v>1767</v>
       </c>
       <c r="D133" t="n">
-        <v>3477</v>
+        <v>4890</v>
       </c>
       <c r="E133" t="n">
-        <v>4007</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="134">
@@ -5452,16 +5554,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4534</v>
+        <v>3572</v>
       </c>
       <c r="C134" t="n">
-        <v>2386</v>
+        <v>3599</v>
       </c>
       <c r="D134" t="n">
-        <v>4890</v>
+        <v>3877</v>
       </c>
       <c r="E134" t="n">
-        <v>2688</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="135">
@@ -5469,16 +5571,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4016</v>
+        <v>4240</v>
       </c>
       <c r="C135" t="n">
-        <v>3247</v>
+        <v>2786</v>
       </c>
       <c r="D135" t="n">
-        <v>4318</v>
+        <v>4425</v>
       </c>
       <c r="E135" t="n">
-        <v>3471</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="136">
@@ -5486,16 +5588,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4716</v>
+        <v>3711</v>
       </c>
       <c r="C136" t="n">
-        <v>2200</v>
+        <v>3476</v>
       </c>
       <c r="D136" t="n">
-        <v>4927</v>
+        <v>3866</v>
       </c>
       <c r="E136" t="n">
-        <v>2374</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="137">
@@ -5503,16 +5605,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4157</v>
+        <v>3330</v>
       </c>
       <c r="C137" t="n">
-        <v>3146</v>
+        <v>3890</v>
       </c>
       <c r="D137" t="n">
-        <v>4290</v>
+        <v>3476</v>
       </c>
       <c r="E137" t="n">
-        <v>3258</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="138">
@@ -5520,16 +5622,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4979</v>
+        <v>4535</v>
       </c>
       <c r="C138" t="n">
-        <v>1647</v>
+        <v>2387</v>
       </c>
       <c r="D138" t="n">
-        <v>5124</v>
+        <v>4889</v>
       </c>
       <c r="E138" t="n">
-        <v>1764</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="139">
@@ -5537,16 +5639,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4858</v>
+        <v>4017</v>
       </c>
       <c r="C139" t="n">
-        <v>2021</v>
+        <v>3248</v>
       </c>
       <c r="D139" t="n">
-        <v>5002</v>
+        <v>4317</v>
       </c>
       <c r="E139" t="n">
-        <v>2158</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="140">
@@ -5554,16 +5656,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4343</v>
+        <v>4717</v>
       </c>
       <c r="C140" t="n">
-        <v>2998</v>
+        <v>2201</v>
       </c>
       <c r="D140" t="n">
-        <v>4479</v>
+        <v>4926</v>
       </c>
       <c r="E140" t="n">
-        <v>3152</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="141">
@@ -5571,16 +5673,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4961</v>
+        <v>4158</v>
       </c>
       <c r="C141" t="n">
-        <v>1801</v>
+        <v>3147</v>
       </c>
       <c r="D141" t="n">
-        <v>5081</v>
+        <v>4289</v>
       </c>
       <c r="E141" t="n">
-        <v>2003</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="142">
@@ -5588,16 +5690,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4520</v>
+        <v>4980</v>
       </c>
       <c r="C142" t="n">
-        <v>2739</v>
+        <v>1648</v>
       </c>
       <c r="D142" t="n">
-        <v>4693</v>
+        <v>5123</v>
       </c>
       <c r="E142" t="n">
-        <v>2927</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="143">
@@ -5605,16 +5707,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3953</v>
+        <v>4859</v>
       </c>
       <c r="C143" t="n">
-        <v>3515</v>
+        <v>2022</v>
       </c>
       <c r="D143" t="n">
-        <v>4375</v>
+        <v>5001</v>
       </c>
       <c r="E143" t="n">
-        <v>3967</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="144">
@@ -5622,16 +5724,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5151</v>
+        <v>4344</v>
       </c>
       <c r="C144" t="n">
-        <v>1467</v>
+        <v>2999</v>
       </c>
       <c r="D144" t="n">
-        <v>5417</v>
+        <v>4478</v>
       </c>
       <c r="E144" t="n">
-        <v>1664</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="145">
@@ -5639,16 +5741,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4513</v>
+        <v>4962</v>
       </c>
       <c r="C145" t="n">
-        <v>2948</v>
+        <v>1802</v>
       </c>
       <c r="D145" t="n">
-        <v>4622</v>
+        <v>5080</v>
       </c>
       <c r="E145" t="n">
-        <v>3075</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="146">
@@ -5656,16 +5758,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4532</v>
+        <v>4521</v>
       </c>
       <c r="C146" t="n">
-        <v>2951</v>
+        <v>2740</v>
       </c>
       <c r="D146" t="n">
-        <v>4867</v>
+        <v>4692</v>
       </c>
       <c r="E146" t="n">
-        <v>3564</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="147">
@@ -5673,16 +5775,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5149</v>
+        <v>3954</v>
       </c>
       <c r="C147" t="n">
-        <v>1704</v>
+        <v>3516</v>
       </c>
       <c r="D147" t="n">
-        <v>5425</v>
+        <v>4374</v>
       </c>
       <c r="E147" t="n">
-        <v>2081</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="148">
@@ -5690,16 +5792,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5048</v>
+        <v>5152</v>
       </c>
       <c r="C148" t="n">
-        <v>2094</v>
+        <v>1468</v>
       </c>
       <c r="D148" t="n">
-        <v>5300</v>
+        <v>5416</v>
       </c>
       <c r="E148" t="n">
-        <v>2280</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="149">
@@ -5707,16 +5809,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4999</v>
+        <v>4514</v>
       </c>
       <c r="C149" t="n">
-        <v>2283</v>
+        <v>2949</v>
       </c>
       <c r="D149" t="n">
-        <v>5468</v>
+        <v>4621</v>
       </c>
       <c r="E149" t="n">
-        <v>2675</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="150">
@@ -5724,16 +5826,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4821</v>
+        <v>4534</v>
       </c>
       <c r="C150" t="n">
-        <v>2673</v>
+        <v>2952</v>
       </c>
       <c r="D150" t="n">
-        <v>4922</v>
+        <v>4866</v>
       </c>
       <c r="E150" t="n">
-        <v>2794</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="151">
@@ -5741,16 +5843,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4731</v>
+        <v>5150</v>
       </c>
       <c r="C151" t="n">
-        <v>2845</v>
+        <v>1705</v>
       </c>
       <c r="D151" t="n">
-        <v>4787</v>
+        <v>5424</v>
       </c>
       <c r="E151" t="n">
-        <v>2915</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="152">
@@ -5758,16 +5860,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4210</v>
+        <v>5049</v>
       </c>
       <c r="C152" t="n">
-        <v>3617</v>
+        <v>2095</v>
       </c>
       <c r="D152" t="n">
-        <v>4721</v>
+        <v>5299</v>
       </c>
       <c r="E152" t="n">
-        <v>4069</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="153">
@@ -5775,16 +5877,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4828</v>
+        <v>5000</v>
       </c>
       <c r="C153" t="n">
-        <v>2879</v>
+        <v>2284</v>
       </c>
       <c r="D153" t="n">
-        <v>4940</v>
+        <v>5467</v>
       </c>
       <c r="E153" t="n">
-        <v>3014</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="154">
@@ -5792,16 +5894,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5027</v>
+        <v>4822</v>
       </c>
       <c r="C154" t="n">
-        <v>2723</v>
+        <v>2674</v>
       </c>
       <c r="D154" t="n">
-        <v>5158</v>
+        <v>4921</v>
       </c>
       <c r="E154" t="n">
-        <v>2852</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="155">
@@ -5809,16 +5911,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4985</v>
+        <v>4732</v>
       </c>
       <c r="C155" t="n">
-        <v>2863</v>
+        <v>2846</v>
       </c>
       <c r="D155" t="n">
-        <v>5393</v>
+        <v>4786</v>
       </c>
       <c r="E155" t="n">
-        <v>3568</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="156">
@@ -5826,16 +5928,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5234</v>
+        <v>4211</v>
       </c>
       <c r="C156" t="n">
-        <v>2697</v>
+        <v>3618</v>
       </c>
       <c r="D156" t="n">
-        <v>5381</v>
+        <v>4720</v>
       </c>
       <c r="E156" t="n">
-        <v>2818</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="157">
@@ -5843,16 +5945,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4799</v>
+        <v>4829</v>
       </c>
       <c r="C157" t="n">
-        <v>3449</v>
+        <v>2880</v>
       </c>
       <c r="D157" t="n">
-        <v>5083</v>
+        <v>4939</v>
       </c>
       <c r="E157" t="n">
-        <v>3782</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="158">
@@ -5860,16 +5962,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4817</v>
+        <v>5028</v>
       </c>
       <c r="C158" t="n">
-        <v>3877</v>
+        <v>2724</v>
       </c>
       <c r="D158" t="n">
-        <v>5425</v>
+        <v>5157</v>
       </c>
       <c r="E158" t="n">
-        <v>4135</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="159">
@@ -5877,16 +5979,84 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5127</v>
+        <v>4986</v>
       </c>
       <c r="C159" t="n">
-        <v>3648</v>
+        <v>2864</v>
       </c>
       <c r="D159" t="n">
-        <v>5420</v>
+        <v>5392</v>
       </c>
       <c r="E159" t="n">
-        <v>3828</v>
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>5235</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2698</v>
+      </c>
+      <c r="D160" t="n">
+        <v>5380</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>4800</v>
+      </c>
+      <c r="C161" t="n">
+        <v>3450</v>
+      </c>
+      <c r="D161" t="n">
+        <v>5082</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4818</v>
+      </c>
+      <c r="C162" t="n">
+        <v>3878</v>
+      </c>
+      <c r="D162" t="n">
+        <v>5424</v>
+      </c>
+      <c r="E162" t="n">
+        <v>4134</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5128</v>
+      </c>
+      <c r="C163" t="n">
+        <v>3649</v>
+      </c>
+      <c r="D163" t="n">
+        <v>5419</v>
+      </c>
+      <c r="E163" t="n">
+        <v>3827</v>
       </c>
     </row>
   </sheetData>
@@ -5900,7 +6070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5935,16 +6105,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>837</v>
+        <v>780</v>
       </c>
       <c r="C2" t="n">
-        <v>441</v>
+        <v>263</v>
       </c>
       <c r="D2" t="n">
-        <v>894</v>
+        <v>1081</v>
       </c>
       <c r="E2" t="n">
-        <v>482</v>
+        <v>694</v>
       </c>
     </row>
     <row r="3">
@@ -5952,16 +6122,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>815</v>
+        <v>746</v>
       </c>
       <c r="C3" t="n">
-        <v>485</v>
+        <v>757</v>
       </c>
       <c r="D3" t="n">
-        <v>895</v>
+        <v>1094</v>
       </c>
       <c r="E3" t="n">
-        <v>660</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="4">
@@ -5969,16 +6139,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>926</v>
+        <v>1375</v>
       </c>
       <c r="C4" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D4" t="n">
-        <v>1054</v>
+        <v>1731</v>
       </c>
       <c r="E4" t="n">
-        <v>413</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5">
@@ -5986,16 +6156,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>930</v>
+        <v>1335</v>
       </c>
       <c r="C5" t="n">
-        <v>424</v>
+        <v>580</v>
       </c>
       <c r="D5" t="n">
-        <v>991</v>
+        <v>1990</v>
       </c>
       <c r="E5" t="n">
-        <v>509</v>
+        <v>922</v>
       </c>
     </row>
     <row r="6">
@@ -6003,16 +6173,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="C6" t="n">
-        <v>516</v>
+        <v>1205</v>
       </c>
       <c r="D6" t="n">
-        <v>992</v>
+        <v>1086</v>
       </c>
       <c r="E6" t="n">
-        <v>649</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="7">
@@ -6020,16 +6190,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="C7" t="n">
-        <v>757</v>
+        <v>1702</v>
       </c>
       <c r="D7" t="n">
-        <v>1094</v>
+        <v>1286</v>
       </c>
       <c r="E7" t="n">
-        <v>1165</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="8">
@@ -6037,16 +6207,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1375</v>
+        <v>1607</v>
       </c>
       <c r="C8" t="n">
-        <v>321</v>
+        <v>1377</v>
       </c>
       <c r="D8" t="n">
-        <v>1731</v>
+        <v>1771</v>
       </c>
       <c r="E8" t="n">
-        <v>518</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="9">
@@ -6054,16 +6224,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1335</v>
+        <v>1866</v>
       </c>
       <c r="C9" t="n">
-        <v>580</v>
+        <v>1222</v>
       </c>
       <c r="D9" t="n">
-        <v>1990</v>
+        <v>1965</v>
       </c>
       <c r="E9" t="n">
-        <v>922</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="10">
@@ -6071,16 +6241,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>874</v>
+        <v>2220</v>
       </c>
       <c r="C10" t="n">
-        <v>1205</v>
+        <v>429</v>
       </c>
       <c r="D10" t="n">
-        <v>1086</v>
+        <v>2408</v>
       </c>
       <c r="E10" t="n">
-        <v>1516</v>
+        <v>639</v>
       </c>
     </row>
     <row r="11">
@@ -6088,16 +6258,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>757</v>
+        <v>618</v>
       </c>
       <c r="C11" t="n">
-        <v>1702</v>
+        <v>2217</v>
       </c>
       <c r="D11" t="n">
-        <v>1286</v>
+        <v>706</v>
       </c>
       <c r="E11" t="n">
-        <v>2254</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="12">
@@ -6105,16 +6275,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1607</v>
+        <v>2159</v>
       </c>
       <c r="C12" t="n">
-        <v>1377</v>
+        <v>805</v>
       </c>
       <c r="D12" t="n">
-        <v>1771</v>
+        <v>2355</v>
       </c>
       <c r="E12" t="n">
-        <v>1511</v>
+        <v>988</v>
       </c>
     </row>
     <row r="13">
@@ -6122,16 +6292,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1866</v>
+        <v>1888</v>
       </c>
       <c r="C13" t="n">
-        <v>1222</v>
+        <v>1408</v>
       </c>
       <c r="D13" t="n">
-        <v>1965</v>
+        <v>2092</v>
       </c>
       <c r="E13" t="n">
-        <v>1364</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="14">
@@ -6139,16 +6309,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2220</v>
+        <v>1637</v>
       </c>
       <c r="C14" t="n">
-        <v>429</v>
+        <v>1699</v>
       </c>
       <c r="D14" t="n">
-        <v>2408</v>
+        <v>1778</v>
       </c>
       <c r="E14" t="n">
-        <v>639</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="15">
@@ -6156,16 +6326,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>618</v>
+        <v>2053</v>
       </c>
       <c r="C15" t="n">
-        <v>2217</v>
+        <v>1178</v>
       </c>
       <c r="D15" t="n">
-        <v>706</v>
+        <v>2251</v>
       </c>
       <c r="E15" t="n">
-        <v>2260</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="16">
@@ -6173,16 +6343,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2159</v>
+        <v>1013</v>
       </c>
       <c r="C16" t="n">
-        <v>805</v>
+        <v>2250</v>
       </c>
       <c r="D16" t="n">
-        <v>2355</v>
+        <v>1695</v>
       </c>
       <c r="E16" t="n">
-        <v>988</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="17">
@@ -6190,16 +6360,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1888</v>
+        <v>2370</v>
       </c>
       <c r="C17" t="n">
-        <v>1408</v>
+        <v>931</v>
       </c>
       <c r="D17" t="n">
-        <v>2092</v>
+        <v>2729</v>
       </c>
       <c r="E17" t="n">
-        <v>1699</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="18">
@@ -6207,16 +6377,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1637</v>
+        <v>2356</v>
       </c>
       <c r="C18" t="n">
-        <v>1699</v>
+        <v>1001</v>
       </c>
       <c r="D18" t="n">
-        <v>1778</v>
+        <v>2742</v>
       </c>
       <c r="E18" t="n">
-        <v>1837</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="19">
@@ -6224,16 +6394,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2053</v>
+        <v>1876</v>
       </c>
       <c r="C19" t="n">
-        <v>1178</v>
+        <v>1814</v>
       </c>
       <c r="D19" t="n">
-        <v>2251</v>
+        <v>2010</v>
       </c>
       <c r="E19" t="n">
-        <v>1349</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="20">
@@ -6241,16 +6411,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1013</v>
+        <v>808</v>
       </c>
       <c r="C20" t="n">
-        <v>2250</v>
+        <v>2504</v>
       </c>
       <c r="D20" t="n">
-        <v>1695</v>
+        <v>1168</v>
       </c>
       <c r="E20" t="n">
-        <v>2626</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="21">
@@ -6258,16 +6428,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2370</v>
+        <v>2573</v>
       </c>
       <c r="C21" t="n">
-        <v>931</v>
+        <v>569</v>
       </c>
       <c r="D21" t="n">
-        <v>2729</v>
+        <v>2805</v>
       </c>
       <c r="E21" t="n">
-        <v>1044</v>
+        <v>813</v>
       </c>
     </row>
     <row r="22">
@@ -6275,16 +6445,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2356</v>
+        <v>2274</v>
       </c>
       <c r="C22" t="n">
-        <v>1001</v>
+        <v>1389</v>
       </c>
       <c r="D22" t="n">
-        <v>2742</v>
+        <v>2374</v>
       </c>
       <c r="E22" t="n">
-        <v>1179</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="23">
@@ -6292,16 +6462,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1876</v>
+        <v>1806</v>
       </c>
       <c r="C23" t="n">
-        <v>1814</v>
+        <v>2120</v>
       </c>
       <c r="D23" t="n">
-        <v>2010</v>
+        <v>2143</v>
       </c>
       <c r="E23" t="n">
-        <v>2028</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="24">
@@ -6309,16 +6479,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>808</v>
+        <v>2258</v>
       </c>
       <c r="C24" t="n">
-        <v>2504</v>
+        <v>1729</v>
       </c>
       <c r="D24" t="n">
-        <v>1168</v>
+        <v>2410</v>
       </c>
       <c r="E24" t="n">
-        <v>2740</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="25">
@@ -6326,16 +6496,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2573</v>
+        <v>925</v>
       </c>
       <c r="C25" t="n">
-        <v>569</v>
+        <v>2728</v>
       </c>
       <c r="D25" t="n">
-        <v>2805</v>
+        <v>2177</v>
       </c>
       <c r="E25" t="n">
-        <v>813</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="26">
@@ -6343,16 +6513,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2274</v>
+        <v>2643</v>
       </c>
       <c r="C26" t="n">
-        <v>1389</v>
+        <v>1215</v>
       </c>
       <c r="D26" t="n">
-        <v>2374</v>
+        <v>2933</v>
       </c>
       <c r="E26" t="n">
-        <v>1596</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="27">
@@ -6360,16 +6530,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1806</v>
+        <v>2905</v>
       </c>
       <c r="C27" t="n">
-        <v>2120</v>
+        <v>280</v>
       </c>
       <c r="D27" t="n">
-        <v>2143</v>
+        <v>3140</v>
       </c>
       <c r="E27" t="n">
-        <v>2398</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28">
@@ -6377,16 +6547,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2258</v>
+        <v>2687</v>
       </c>
       <c r="C28" t="n">
-        <v>1729</v>
+        <v>1722</v>
       </c>
       <c r="D28" t="n">
-        <v>2410</v>
+        <v>2920</v>
       </c>
       <c r="E28" t="n">
-        <v>2030</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="29">
@@ -6394,16 +6564,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>925</v>
+        <v>2349</v>
       </c>
       <c r="C29" t="n">
-        <v>2728</v>
+        <v>2199</v>
       </c>
       <c r="D29" t="n">
-        <v>2177</v>
+        <v>2583</v>
       </c>
       <c r="E29" t="n">
-        <v>4074</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="30">
@@ -6411,16 +6581,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2643</v>
+        <v>1861</v>
       </c>
       <c r="C30" t="n">
-        <v>1215</v>
+        <v>2675</v>
       </c>
       <c r="D30" t="n">
-        <v>2933</v>
+        <v>2787</v>
       </c>
       <c r="E30" t="n">
-        <v>1544</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="31">
@@ -6428,16 +6598,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2687</v>
+        <v>3067</v>
       </c>
       <c r="C31" t="n">
-        <v>1722</v>
+        <v>1189</v>
       </c>
       <c r="D31" t="n">
-        <v>2920</v>
+        <v>3415</v>
       </c>
       <c r="E31" t="n">
-        <v>1929</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="32">
@@ -6445,16 +6615,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2349</v>
+        <v>3184</v>
       </c>
       <c r="C32" t="n">
-        <v>2199</v>
+        <v>928</v>
       </c>
       <c r="D32" t="n">
-        <v>2583</v>
+        <v>3656</v>
       </c>
       <c r="E32" t="n">
-        <v>2449</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="33">
@@ -6462,16 +6632,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1861</v>
+        <v>3001</v>
       </c>
       <c r="C33" t="n">
-        <v>2675</v>
+        <v>1416</v>
       </c>
       <c r="D33" t="n">
-        <v>2787</v>
+        <v>3619</v>
       </c>
       <c r="E33" t="n">
-        <v>3177</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="34">
@@ -6479,16 +6649,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3067</v>
+        <v>2634</v>
       </c>
       <c r="C34" t="n">
-        <v>1189</v>
+        <v>2038</v>
       </c>
       <c r="D34" t="n">
-        <v>3415</v>
+        <v>2822</v>
       </c>
       <c r="E34" t="n">
-        <v>1449</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="35">
@@ -6496,16 +6666,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3184</v>
+        <v>3249</v>
       </c>
       <c r="C35" t="n">
-        <v>928</v>
+        <v>809</v>
       </c>
       <c r="D35" t="n">
-        <v>3656</v>
+        <v>3523</v>
       </c>
       <c r="E35" t="n">
-        <v>1243</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="36">
@@ -6513,16 +6683,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3001</v>
+        <v>2206</v>
       </c>
       <c r="C36" t="n">
-        <v>1416</v>
+        <v>2616</v>
       </c>
       <c r="D36" t="n">
-        <v>3619</v>
+        <v>2377</v>
       </c>
       <c r="E36" t="n">
-        <v>1835</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="37">
@@ -6530,16 +6700,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2634</v>
+        <v>2721</v>
       </c>
       <c r="C37" t="n">
-        <v>2038</v>
+        <v>2267</v>
       </c>
       <c r="D37" t="n">
-        <v>2822</v>
+        <v>3026</v>
       </c>
       <c r="E37" t="n">
-        <v>2209</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="38">
@@ -6547,16 +6717,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3249</v>
+        <v>3379</v>
       </c>
       <c r="C38" t="n">
-        <v>809</v>
+        <v>1217</v>
       </c>
       <c r="D38" t="n">
-        <v>3523</v>
+        <v>3593</v>
       </c>
       <c r="E38" t="n">
-        <v>1021</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="39">
@@ -6564,16 +6734,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2206</v>
+        <v>3355</v>
       </c>
       <c r="C39" t="n">
-        <v>2616</v>
+        <v>1363</v>
       </c>
       <c r="D39" t="n">
-        <v>2377</v>
+        <v>3786</v>
       </c>
       <c r="E39" t="n">
-        <v>2817</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="40">
@@ -6581,16 +6751,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2721</v>
+        <v>3654</v>
       </c>
       <c r="C40" t="n">
-        <v>2267</v>
+        <v>778</v>
       </c>
       <c r="D40" t="n">
-        <v>3026</v>
+        <v>3958</v>
       </c>
       <c r="E40" t="n">
-        <v>2559</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="41">
@@ -6598,16 +6768,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3379</v>
+        <v>2615</v>
       </c>
       <c r="C41" t="n">
-        <v>1217</v>
+        <v>2699</v>
       </c>
       <c r="D41" t="n">
-        <v>3593</v>
+        <v>2961</v>
       </c>
       <c r="E41" t="n">
-        <v>1420</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="42">
@@ -6615,16 +6785,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3355</v>
+        <v>3418</v>
       </c>
       <c r="C42" t="n">
-        <v>1363</v>
+        <v>1972</v>
       </c>
       <c r="D42" t="n">
-        <v>3786</v>
+        <v>3877</v>
       </c>
       <c r="E42" t="n">
-        <v>1689</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="43">
@@ -6632,16 +6802,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3654</v>
+        <v>4038</v>
       </c>
       <c r="C43" t="n">
-        <v>778</v>
+        <v>436</v>
       </c>
       <c r="D43" t="n">
-        <v>3958</v>
+        <v>4263</v>
       </c>
       <c r="E43" t="n">
-        <v>1666</v>
+        <v>904</v>
       </c>
     </row>
     <row r="44">
@@ -6649,16 +6819,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2615</v>
+        <v>3008</v>
       </c>
       <c r="C44" t="n">
-        <v>2699</v>
+        <v>2797</v>
       </c>
       <c r="D44" t="n">
-        <v>2961</v>
+        <v>3170</v>
       </c>
       <c r="E44" t="n">
-        <v>2947</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="45">
@@ -6666,16 +6836,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3418</v>
+        <v>2392</v>
       </c>
       <c r="C45" t="n">
-        <v>1972</v>
+        <v>3403</v>
       </c>
       <c r="D45" t="n">
-        <v>3877</v>
+        <v>2566</v>
       </c>
       <c r="E45" t="n">
-        <v>2696</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="46">
@@ -6683,16 +6853,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4038</v>
+        <v>2899</v>
       </c>
       <c r="C46" t="n">
-        <v>436</v>
+        <v>3008</v>
       </c>
       <c r="D46" t="n">
-        <v>4263</v>
+        <v>3139</v>
       </c>
       <c r="E46" t="n">
-        <v>904</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="47">
@@ -6700,16 +6870,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3008</v>
+        <v>4073</v>
       </c>
       <c r="C47" t="n">
-        <v>2797</v>
+        <v>995</v>
       </c>
       <c r="D47" t="n">
-        <v>3170</v>
+        <v>4269</v>
       </c>
       <c r="E47" t="n">
-        <v>2979</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="48">
@@ -6717,16 +6887,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2392</v>
+        <v>2748</v>
       </c>
       <c r="C48" t="n">
-        <v>3403</v>
+        <v>3309</v>
       </c>
       <c r="D48" t="n">
-        <v>2566</v>
+        <v>3023</v>
       </c>
       <c r="E48" t="n">
-        <v>3700</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="49">
@@ -6734,16 +6904,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2899</v>
+        <v>3548</v>
       </c>
       <c r="C49" t="n">
-        <v>3008</v>
+        <v>2659</v>
       </c>
       <c r="D49" t="n">
-        <v>3139</v>
+        <v>4575</v>
       </c>
       <c r="E49" t="n">
-        <v>3197</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="50">
@@ -6751,16 +6921,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4073</v>
+        <v>4426</v>
       </c>
       <c r="C50" t="n">
-        <v>995</v>
+        <v>390</v>
       </c>
       <c r="D50" t="n">
-        <v>4269</v>
+        <v>5331</v>
       </c>
       <c r="E50" t="n">
-        <v>1232</v>
+        <v>912</v>
       </c>
     </row>
     <row r="51">
@@ -6768,16 +6938,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2748</v>
+        <v>4170</v>
       </c>
       <c r="C51" t="n">
-        <v>3309</v>
+        <v>1613</v>
       </c>
       <c r="D51" t="n">
-        <v>3023</v>
+        <v>4360</v>
       </c>
       <c r="E51" t="n">
-        <v>3556</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="52">
@@ -6785,16 +6955,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3548</v>
+        <v>2383</v>
       </c>
       <c r="C52" t="n">
-        <v>2659</v>
+        <v>3804</v>
       </c>
       <c r="D52" t="n">
-        <v>4575</v>
+        <v>2740</v>
       </c>
       <c r="E52" t="n">
-        <v>4039</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="53">
@@ -6802,16 +6972,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4426</v>
+        <v>4534</v>
       </c>
       <c r="C53" t="n">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="D53" t="n">
-        <v>5331</v>
+        <v>4583</v>
       </c>
       <c r="E53" t="n">
-        <v>912</v>
+        <v>393</v>
       </c>
     </row>
     <row r="54">
@@ -6819,16 +6989,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4170</v>
+        <v>3264</v>
       </c>
       <c r="C54" t="n">
-        <v>1613</v>
+        <v>3426</v>
       </c>
       <c r="D54" t="n">
-        <v>4360</v>
+        <v>3396</v>
       </c>
       <c r="E54" t="n">
-        <v>1804</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="55">
@@ -6836,16 +7006,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2383</v>
+        <v>4415</v>
       </c>
       <c r="C55" t="n">
-        <v>3804</v>
+        <v>1725</v>
       </c>
       <c r="D55" t="n">
-        <v>2740</v>
+        <v>4633</v>
       </c>
       <c r="E55" t="n">
-        <v>3954</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="56">
@@ -6853,16 +7023,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4534</v>
+        <v>2835</v>
       </c>
       <c r="C56" t="n">
-        <v>344</v>
+        <v>3820</v>
       </c>
       <c r="D56" t="n">
-        <v>4583</v>
+        <v>3086</v>
       </c>
       <c r="E56" t="n">
-        <v>393</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="57">
@@ -6870,16 +7040,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3264</v>
+        <v>4747</v>
       </c>
       <c r="C57" t="n">
-        <v>3426</v>
+        <v>1234</v>
       </c>
       <c r="D57" t="n">
-        <v>3396</v>
+        <v>5401</v>
       </c>
       <c r="E57" t="n">
-        <v>3534</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="58">
@@ -6887,66 +7057,15 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4415</v>
+        <v>5455</v>
       </c>
       <c r="C58" t="n">
-        <v>1725</v>
+        <v>3401</v>
       </c>
       <c r="D58" t="n">
-        <v>4633</v>
+        <v>5596</v>
       </c>
       <c r="E58" t="n">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>2835</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3820</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3086</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3962</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>4747</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1234</v>
-      </c>
-      <c r="D60" t="n">
-        <v>5401</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3874</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>5455</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3401</v>
-      </c>
-      <c r="D61" t="n">
-        <v>5596</v>
-      </c>
-      <c r="E61" t="n">
         <v>3491</v>
       </c>
     </row>

--- a/q1_output.xlsx
+++ b/q1_output.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C2" t="n">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D2" t="n">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E2" t="n">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="3">
@@ -508,16 +508,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C3" t="n">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D3" t="n">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E3" t="n">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +525,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C4" t="n">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D4" t="n">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E4" t="n">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="5">
@@ -542,16 +542,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C5" t="n">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D5" t="n">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E5" t="n">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="6">
@@ -559,16 +559,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="C6" t="n">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D6" t="n">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="E6" t="n">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="7">
@@ -576,16 +576,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="C7" t="n">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D7" t="n">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="E7" t="n">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="8">
@@ -593,16 +593,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C8" t="n">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="D8" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E8" t="n">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="9">
@@ -610,16 +610,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="C9" t="n">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D9" t="n">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="E9" t="n">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="10">
@@ -627,16 +627,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C10" t="n">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="D10" t="n">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E10" t="n">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="11">
@@ -644,16 +644,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="C11" t="n">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D11" t="n">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="E11" t="n">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="12">
@@ -661,16 +661,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C12" t="n">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="D12" t="n">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E12" t="n">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="13">
@@ -678,16 +678,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C13" t="n">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="D13" t="n">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E13" t="n">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +695,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C14" t="n">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="D14" t="n">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="E14" t="n">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="15">
@@ -712,16 +712,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="C15" t="n">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D15" t="n">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="E15" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="16">
@@ -729,16 +729,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C16" t="n">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="D16" t="n">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E16" t="n">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="17">
@@ -746,16 +746,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C17" t="n">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="D17" t="n">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E17" t="n">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="18">
@@ -763,16 +763,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2792</v>
+        <v>2880</v>
       </c>
       <c r="C18" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D18" t="n">
-        <v>4271</v>
+        <v>4270</v>
       </c>
       <c r="E18" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19">
@@ -780,16 +780,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="C19" t="n">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="D19" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E19" t="n">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="20">
@@ -797,16 +797,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C20" t="n">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="D20" t="n">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E20" t="n">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="21">
@@ -814,16 +814,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C21" t="n">
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="D21" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E21" t="n">
-        <v>3186</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="22">
@@ -831,16 +831,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C22" t="n">
-        <v>2953</v>
+        <v>2954</v>
       </c>
       <c r="D22" t="n">
-        <v>988</v>
+        <v>763</v>
       </c>
       <c r="E22" t="n">
-        <v>3205</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="23">
@@ -848,16 +848,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="C23" t="n">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="D23" t="n">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="E23" t="n">
-        <v>2812</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="24">
@@ -865,16 +865,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2862</v>
+        <v>684</v>
       </c>
       <c r="C24" t="n">
-        <v>1127</v>
+        <v>2972</v>
       </c>
       <c r="D24" t="n">
-        <v>3310</v>
+        <v>987</v>
       </c>
       <c r="E24" t="n">
-        <v>1691</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="25">
@@ -882,16 +882,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1819</v>
+        <v>2863</v>
       </c>
       <c r="C25" t="n">
-        <v>2490</v>
+        <v>1128</v>
       </c>
       <c r="D25" t="n">
-        <v>2064</v>
+        <v>3309</v>
       </c>
       <c r="E25" t="n">
-        <v>2624</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="26">
@@ -899,16 +899,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1105</v>
+        <v>1822</v>
       </c>
       <c r="C26" t="n">
-        <v>2914</v>
+        <v>2491</v>
       </c>
       <c r="D26" t="n">
-        <v>1329</v>
+        <v>2063</v>
       </c>
       <c r="E26" t="n">
-        <v>3044</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="27">
@@ -916,16 +916,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2119</v>
+        <v>1106</v>
       </c>
       <c r="C27" t="n">
-        <v>2339</v>
+        <v>2915</v>
       </c>
       <c r="D27" t="n">
-        <v>2272</v>
+        <v>1328</v>
       </c>
       <c r="E27" t="n">
-        <v>2467</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="28">
@@ -933,16 +933,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>532</v>
+        <v>2120</v>
       </c>
       <c r="C28" t="n">
-        <v>3147</v>
+        <v>2340</v>
       </c>
       <c r="D28" t="n">
-        <v>576</v>
+        <v>2271</v>
       </c>
       <c r="E28" t="n">
-        <v>3205</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="29">
@@ -950,16 +950,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1328</v>
+        <v>533</v>
       </c>
       <c r="C29" t="n">
-        <v>2908</v>
+        <v>3148</v>
       </c>
       <c r="D29" t="n">
-        <v>1591</v>
+        <v>575</v>
       </c>
       <c r="E29" t="n">
-        <v>3065</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="30">
@@ -967,16 +967,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2300</v>
+        <v>1329</v>
       </c>
       <c r="C30" t="n">
-        <v>2255</v>
+        <v>2909</v>
       </c>
       <c r="D30" t="n">
-        <v>2571</v>
+        <v>1590</v>
       </c>
       <c r="E30" t="n">
-        <v>2513</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="31">
@@ -984,16 +984,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>920</v>
+        <v>2301</v>
       </c>
       <c r="C31" t="n">
-        <v>3154</v>
+        <v>2256</v>
       </c>
       <c r="D31" t="n">
-        <v>1263</v>
+        <v>2570</v>
       </c>
       <c r="E31" t="n">
-        <v>3353</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="32">
@@ -1001,16 +1001,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3227</v>
+        <v>921</v>
       </c>
       <c r="C32" t="n">
-        <v>635</v>
+        <v>3155</v>
       </c>
       <c r="D32" t="n">
-        <v>3354</v>
+        <v>1262</v>
       </c>
       <c r="E32" t="n">
-        <v>759</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="33">
@@ -1018,16 +1018,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>310</v>
+        <v>3229</v>
       </c>
       <c r="C33" t="n">
-        <v>3313</v>
+        <v>636</v>
       </c>
       <c r="D33" t="n">
-        <v>532</v>
+        <v>3353</v>
       </c>
       <c r="E33" t="n">
-        <v>3480</v>
+        <v>757</v>
       </c>
     </row>
     <row r="34">
@@ -1035,16 +1035,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1413</v>
+        <v>311</v>
       </c>
       <c r="C34" t="n">
-        <v>3019</v>
+        <v>3314</v>
       </c>
       <c r="D34" t="n">
-        <v>1876</v>
+        <v>531</v>
       </c>
       <c r="E34" t="n">
-        <v>3574</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="35">
@@ -1052,16 +1052,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1341</v>
+        <v>1414</v>
       </c>
       <c r="C35" t="n">
-        <v>3115</v>
+        <v>3020</v>
       </c>
       <c r="D35" t="n">
-        <v>1535</v>
+        <v>1875</v>
       </c>
       <c r="E35" t="n">
-        <v>3274</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="36">
@@ -1069,16 +1069,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2216</v>
+        <v>1342</v>
       </c>
       <c r="C36" t="n">
-        <v>2584</v>
+        <v>3116</v>
       </c>
       <c r="D36" t="n">
-        <v>2478</v>
+        <v>1534</v>
       </c>
       <c r="E36" t="n">
-        <v>2822</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="37">
@@ -1086,16 +1086,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>722</v>
+        <v>2217</v>
       </c>
       <c r="C37" t="n">
-        <v>3359</v>
+        <v>2585</v>
       </c>
       <c r="D37" t="n">
-        <v>1042</v>
+        <v>2477</v>
       </c>
       <c r="E37" t="n">
-        <v>3610</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="38">
@@ -1103,16 +1103,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2818</v>
+        <v>723</v>
       </c>
       <c r="C38" t="n">
-        <v>2088</v>
+        <v>3360</v>
       </c>
       <c r="D38" t="n">
-        <v>3133</v>
+        <v>1041</v>
       </c>
       <c r="E38" t="n">
-        <v>2538</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="39">
@@ -1120,16 +1120,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>351</v>
+        <v>2819</v>
       </c>
       <c r="C39" t="n">
-        <v>3521</v>
+        <v>2089</v>
       </c>
       <c r="D39" t="n">
-        <v>527</v>
+        <v>3132</v>
       </c>
       <c r="E39" t="n">
-        <v>3670</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="40">
@@ -1137,16 +1137,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2078</v>
+        <v>352</v>
       </c>
       <c r="C40" t="n">
-        <v>2906</v>
+        <v>3522</v>
       </c>
       <c r="D40" t="n">
-        <v>2394</v>
+        <v>526</v>
       </c>
       <c r="E40" t="n">
-        <v>3243</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="41">
@@ -1154,16 +1154,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1148</v>
+        <v>2079</v>
       </c>
       <c r="C41" t="n">
-        <v>3424</v>
+        <v>2907</v>
       </c>
       <c r="D41" t="n">
-        <v>1349</v>
+        <v>2393</v>
       </c>
       <c r="E41" t="n">
-        <v>3560</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="42">
@@ -1171,16 +1171,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1876</v>
+        <v>1149</v>
       </c>
       <c r="C42" t="n">
-        <v>3099</v>
+        <v>3425</v>
       </c>
       <c r="D42" t="n">
-        <v>1957</v>
+        <v>1348</v>
       </c>
       <c r="E42" t="n">
-        <v>3182</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="43">
@@ -1188,16 +1188,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3517</v>
+        <v>1877</v>
       </c>
       <c r="C43" t="n">
-        <v>983</v>
+        <v>3100</v>
       </c>
       <c r="D43" t="n">
-        <v>3992</v>
+        <v>1956</v>
       </c>
       <c r="E43" t="n">
-        <v>1196</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="44">
@@ -1205,16 +1205,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2483</v>
+        <v>3518</v>
       </c>
       <c r="C44" t="n">
-        <v>2692</v>
+        <v>984</v>
       </c>
       <c r="D44" t="n">
-        <v>2656</v>
+        <v>3991</v>
       </c>
       <c r="E44" t="n">
-        <v>2805</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="45">
@@ -1222,16 +1222,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2762</v>
+        <v>2484</v>
       </c>
       <c r="C45" t="n">
-        <v>2580</v>
+        <v>2693</v>
       </c>
       <c r="D45" t="n">
-        <v>2963</v>
+        <v>2655</v>
       </c>
       <c r="E45" t="n">
-        <v>2760</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="46">
@@ -1239,16 +1239,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2455</v>
+        <v>2763</v>
       </c>
       <c r="C46" t="n">
-        <v>2884</v>
+        <v>2581</v>
       </c>
       <c r="D46" t="n">
-        <v>2764</v>
+        <v>2962</v>
       </c>
       <c r="E46" t="n">
-        <v>3141</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="47">
@@ -1256,16 +1256,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>368</v>
+        <v>2456</v>
       </c>
       <c r="C47" t="n">
-        <v>3775</v>
+        <v>2885</v>
       </c>
       <c r="D47" t="n">
-        <v>573</v>
+        <v>2763</v>
       </c>
       <c r="E47" t="n">
-        <v>3945</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="48">
@@ -1273,16 +1273,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3485</v>
+        <v>369</v>
       </c>
       <c r="C48" t="n">
-        <v>1505</v>
+        <v>3776</v>
       </c>
       <c r="D48" t="n">
-        <v>3775</v>
+        <v>572</v>
       </c>
       <c r="E48" t="n">
-        <v>1971</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="49">
@@ -1290,16 +1290,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>791</v>
+        <v>3485</v>
       </c>
       <c r="C49" t="n">
-        <v>3721</v>
+        <v>1506</v>
       </c>
       <c r="D49" t="n">
-        <v>1088</v>
+        <v>3774</v>
       </c>
       <c r="E49" t="n">
-        <v>3817</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="50">
@@ -1307,16 +1307,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1779</v>
+        <v>792</v>
       </c>
       <c r="C50" t="n">
-        <v>3466</v>
+        <v>3722</v>
       </c>
       <c r="D50" t="n">
-        <v>2641</v>
+        <v>1087</v>
       </c>
       <c r="E50" t="n">
-        <v>3804</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="51">
@@ -1324,16 +1324,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3688</v>
+        <v>3689</v>
       </c>
       <c r="C51" t="n">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D51" t="n">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="E51" t="n">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="52">
@@ -1341,16 +1341,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C52" t="n">
-        <v>3763</v>
+        <v>3764</v>
       </c>
       <c r="D52" t="n">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="E52" t="n">
-        <v>3918</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="53">
@@ -1358,16 +1358,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2462</v>
+        <v>1780</v>
       </c>
       <c r="C53" t="n">
-        <v>3167</v>
+        <v>3586</v>
       </c>
       <c r="D53" t="n">
-        <v>2748</v>
+        <v>2246</v>
       </c>
       <c r="E53" t="n">
-        <v>3411</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="54">
@@ -1375,16 +1375,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2832</v>
+        <v>2463</v>
       </c>
       <c r="C54" t="n">
-        <v>2842</v>
+        <v>3168</v>
       </c>
       <c r="D54" t="n">
-        <v>3178</v>
+        <v>2747</v>
       </c>
       <c r="E54" t="n">
-        <v>3067</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="55">
@@ -1392,16 +1392,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1456</v>
+        <v>2833</v>
       </c>
       <c r="C55" t="n">
-        <v>3760</v>
+        <v>2843</v>
       </c>
       <c r="D55" t="n">
-        <v>1772</v>
+        <v>3177</v>
       </c>
       <c r="E55" t="n">
-        <v>3961</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="56">
@@ -1409,16 +1409,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>697</v>
+        <v>1457</v>
       </c>
       <c r="C56" t="n">
-        <v>4016</v>
+        <v>3761</v>
       </c>
       <c r="D56" t="n">
-        <v>975</v>
+        <v>1771</v>
       </c>
       <c r="E56" t="n">
-        <v>4204</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="57">
@@ -1426,16 +1426,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3548</v>
+        <v>698</v>
       </c>
       <c r="C57" t="n">
-        <v>2089</v>
+        <v>4017</v>
       </c>
       <c r="D57" t="n">
-        <v>3963</v>
+        <v>974</v>
       </c>
       <c r="E57" t="n">
-        <v>2470</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="58">
@@ -1443,16 +1443,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3200</v>
+        <v>2157</v>
       </c>
       <c r="C58" t="n">
-        <v>2610</v>
+        <v>3467</v>
       </c>
       <c r="D58" t="n">
-        <v>3395</v>
+        <v>2639</v>
       </c>
       <c r="E58" t="n">
-        <v>2821</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="59">
@@ -1460,16 +1460,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2765</v>
+        <v>3549</v>
       </c>
       <c r="C59" t="n">
-        <v>3137</v>
+        <v>2090</v>
       </c>
       <c r="D59" t="n">
-        <v>3026</v>
+        <v>3962</v>
       </c>
       <c r="E59" t="n">
-        <v>3339</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="60">
@@ -1477,16 +1477,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1016</v>
+        <v>3201</v>
       </c>
       <c r="C60" t="n">
-        <v>4099</v>
+        <v>2611</v>
       </c>
       <c r="D60" t="n">
-        <v>1231</v>
+        <v>3394</v>
       </c>
       <c r="E60" t="n">
-        <v>4207</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="61">
@@ -1494,16 +1494,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1294</v>
+        <v>2766</v>
       </c>
       <c r="C61" t="n">
-        <v>4070</v>
+        <v>3138</v>
       </c>
       <c r="D61" t="n">
-        <v>1455</v>
+        <v>3025</v>
       </c>
       <c r="E61" t="n">
-        <v>4200</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="62">
@@ -1511,16 +1511,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3451</v>
+        <v>1017</v>
       </c>
       <c r="C62" t="n">
-        <v>2574</v>
+        <v>4100</v>
       </c>
       <c r="D62" t="n">
-        <v>3686</v>
+        <v>1230</v>
       </c>
       <c r="E62" t="n">
-        <v>2846</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="63">
@@ -1528,16 +1528,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1486</v>
+        <v>1295</v>
       </c>
       <c r="C63" t="n">
-        <v>4051</v>
+        <v>4071</v>
       </c>
       <c r="D63" t="n">
-        <v>1915</v>
+        <v>1454</v>
       </c>
       <c r="E63" t="n">
-        <v>4277</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="64">
@@ -1545,16 +1545,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3233</v>
+        <v>3452</v>
       </c>
       <c r="C64" t="n">
-        <v>2888</v>
+        <v>2575</v>
       </c>
       <c r="D64" t="n">
-        <v>3462</v>
+        <v>3685</v>
       </c>
       <c r="E64" t="n">
-        <v>3171</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="65">
@@ -1562,16 +1562,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2593</v>
+        <v>1487</v>
       </c>
       <c r="C65" t="n">
-        <v>3500</v>
+        <v>4052</v>
       </c>
       <c r="D65" t="n">
-        <v>3079</v>
+        <v>1914</v>
       </c>
       <c r="E65" t="n">
-        <v>3937</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="66">
@@ -1579,16 +1579,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3070</v>
+        <v>3234</v>
       </c>
       <c r="C66" t="n">
-        <v>3136</v>
+        <v>2889</v>
       </c>
       <c r="D66" t="n">
-        <v>3308</v>
+        <v>3461</v>
       </c>
       <c r="E66" t="n">
-        <v>3387</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="67">
@@ -1596,16 +1596,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>330</v>
+        <v>2594</v>
       </c>
       <c r="C67" t="n">
-        <v>4377</v>
+        <v>3501</v>
       </c>
       <c r="D67" t="n">
-        <v>2646</v>
+        <v>3077</v>
       </c>
       <c r="E67" t="n">
-        <v>4997</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="68">
@@ -1613,16 +1613,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1966</v>
+        <v>3071</v>
       </c>
       <c r="C68" t="n">
-        <v>3948</v>
+        <v>3137</v>
       </c>
       <c r="D68" t="n">
-        <v>2327</v>
+        <v>3307</v>
       </c>
       <c r="E68" t="n">
-        <v>4189</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="69">
@@ -1630,16 +1630,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2221</v>
+        <v>331</v>
       </c>
       <c r="C69" t="n">
-        <v>3895</v>
+        <v>4378</v>
       </c>
       <c r="D69" t="n">
-        <v>2492</v>
+        <v>2645</v>
       </c>
       <c r="E69" t="n">
-        <v>4077</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="70">
@@ -1647,16 +1647,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3444</v>
+        <v>1967</v>
       </c>
       <c r="C70" t="n">
-        <v>2894</v>
+        <v>3949</v>
       </c>
       <c r="D70" t="n">
-        <v>3663</v>
+        <v>2325</v>
       </c>
       <c r="E70" t="n">
-        <v>3157</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="71">
@@ -1664,16 +1664,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3751</v>
+        <v>2225</v>
       </c>
       <c r="C71" t="n">
-        <v>2590</v>
+        <v>3896</v>
       </c>
       <c r="D71" t="n">
-        <v>3973</v>
+        <v>2491</v>
       </c>
       <c r="E71" t="n">
-        <v>2783</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="72">
@@ -1681,16 +1681,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2054</v>
+        <v>3446</v>
       </c>
       <c r="C72" t="n">
-        <v>4109</v>
+        <v>2895</v>
       </c>
       <c r="D72" t="n">
-        <v>2452</v>
+        <v>3662</v>
       </c>
       <c r="E72" t="n">
-        <v>4381</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="73">
@@ -1698,16 +1698,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3072</v>
+        <v>3752</v>
       </c>
       <c r="C73" t="n">
-        <v>3437</v>
+        <v>2591</v>
       </c>
       <c r="D73" t="n">
-        <v>3817</v>
+        <v>3972</v>
       </c>
       <c r="E73" t="n">
-        <v>3925</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="74">
@@ -1715,16 +1715,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2505</v>
+        <v>2055</v>
       </c>
       <c r="C74" t="n">
-        <v>3993</v>
+        <v>4110</v>
       </c>
       <c r="D74" t="n">
-        <v>3964</v>
+        <v>2451</v>
       </c>
       <c r="E74" t="n">
-        <v>4659</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="75">
@@ -1732,16 +1732,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3715</v>
+        <v>3073</v>
       </c>
       <c r="C75" t="n">
-        <v>2909</v>
+        <v>3438</v>
       </c>
       <c r="D75" t="n">
-        <v>3966</v>
+        <v>3816</v>
       </c>
       <c r="E75" t="n">
-        <v>3084</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="76">
@@ -1749,16 +1749,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3704</v>
+        <v>2506</v>
       </c>
       <c r="C76" t="n">
-        <v>3131</v>
+        <v>3994</v>
       </c>
       <c r="D76" t="n">
-        <v>4018</v>
+        <v>3963</v>
       </c>
       <c r="E76" t="n">
-        <v>3376</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="77">
@@ -1766,16 +1766,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>372</v>
+        <v>3716</v>
       </c>
       <c r="C77" t="n">
-        <v>5018</v>
+        <v>2910</v>
       </c>
       <c r="D77" t="n">
-        <v>780</v>
+        <v>3965</v>
       </c>
       <c r="E77" t="n">
-        <v>5431</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="78">
@@ -1783,16 +1783,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1059</v>
+        <v>3705</v>
       </c>
       <c r="C78" t="n">
-        <v>4987</v>
+        <v>3132</v>
       </c>
       <c r="D78" t="n">
-        <v>1332</v>
+        <v>4017</v>
       </c>
       <c r="E78" t="n">
-        <v>5163</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="79">
@@ -1800,16 +1800,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1494</v>
+        <v>373</v>
       </c>
       <c r="C79" t="n">
-        <v>4909</v>
+        <v>5019</v>
       </c>
       <c r="D79" t="n">
-        <v>2086</v>
+        <v>779</v>
       </c>
       <c r="E79" t="n">
-        <v>5493</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="80">
@@ -1817,16 +1817,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2726</v>
+        <v>1060</v>
       </c>
       <c r="C80" t="n">
-        <v>4642</v>
+        <v>4988</v>
       </c>
       <c r="D80" t="n">
-        <v>4015</v>
+        <v>1331</v>
       </c>
       <c r="E80" t="n">
-        <v>5554</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="81">
@@ -1834,16 +1834,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2191</v>
+        <v>1495</v>
       </c>
       <c r="C81" t="n">
-        <v>5083</v>
+        <v>4923</v>
       </c>
       <c r="D81" t="n">
-        <v>2328</v>
+        <v>2085</v>
       </c>
       <c r="E81" t="n">
-        <v>5207</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="82">
@@ -1851,16 +1851,50 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2366</v>
+        <v>2727</v>
       </c>
       <c r="C82" t="n">
-        <v>5218</v>
+        <v>4643</v>
       </c>
       <c r="D82" t="n">
-        <v>2756</v>
+        <v>4014</v>
       </c>
       <c r="E82" t="n">
-        <v>5461</v>
+        <v>5553</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2192</v>
+      </c>
+      <c r="C83" t="n">
+        <v>5084</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2325</v>
+      </c>
+      <c r="E83" t="n">
+        <v>5206</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2367</v>
+      </c>
+      <c r="C84" t="n">
+        <v>5219</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2755</v>
+      </c>
+      <c r="E84" t="n">
+        <v>5460</v>
       </c>
     </row>
   </sheetData>
